--- a/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.92497098568013</v>
+        <v>10.92497098567994</v>
       </c>
       <c r="D2">
-        <v>6.018861413550384</v>
+        <v>6.018861413550264</v>
       </c>
       <c r="E2">
-        <v>20.20006492120158</v>
+        <v>20.20006492120149</v>
       </c>
       <c r="F2">
-        <v>45.29704998043149</v>
+        <v>45.29704998043105</v>
       </c>
       <c r="G2">
-        <v>36.17305097239575</v>
+        <v>36.17305097239536</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>103.4670177840641</v>
+        <v>103.4670177840638</v>
       </c>
       <c r="K2">
         <v>12.65222557590332</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.943518581526085</v>
+        <v>9.943518581526234</v>
       </c>
       <c r="D3">
-        <v>5.056354802692044</v>
+        <v>5.056354802692299</v>
       </c>
       <c r="E3">
-        <v>18.35232984719129</v>
+        <v>18.35232984719126</v>
       </c>
       <c r="F3">
-        <v>39.91472399451514</v>
+        <v>39.9147239945154</v>
       </c>
       <c r="G3">
-        <v>31.72335139542201</v>
+        <v>31.72335139542225</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>95.22385862155045</v>
+        <v>95.22385862155062</v>
       </c>
       <c r="K3">
-        <v>11.5260724370737</v>
+        <v>11.52607243707364</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.345330488700206</v>
+        <v>9.345330488700215</v>
       </c>
       <c r="D4">
-        <v>4.502140773092785</v>
+        <v>4.50214077309287</v>
       </c>
       <c r="E4">
         <v>17.2306590527578</v>
       </c>
       <c r="F4">
-        <v>36.7993670358417</v>
+        <v>36.79936703584168</v>
       </c>
       <c r="G4">
         <v>29.14664921649762</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>90.08652515703818</v>
+        <v>90.086525157038</v>
       </c>
       <c r="K4">
-        <v>10.84365280280746</v>
+        <v>10.84365280280748</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.100901361098789</v>
+        <v>9.10090136109878</v>
       </c>
       <c r="D5">
-        <v>4.282671741929515</v>
+        <v>4.28267174192913</v>
       </c>
       <c r="E5">
-        <v>16.77313889480717</v>
+        <v>16.77313889480716</v>
       </c>
       <c r="F5">
-        <v>35.56430845478245</v>
+        <v>35.56430845478215</v>
       </c>
       <c r="G5">
-        <v>28.12458232658825</v>
+        <v>28.12458232658793</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>87.9633949308096</v>
+        <v>87.96339493080944</v>
       </c>
       <c r="K5">
         <v>10.56555130420061</v>
@@ -570,16 +570,16 @@
         <v>9.060233031297914</v>
       </c>
       <c r="D6">
-        <v>4.24654845854</v>
+        <v>4.246548458540132</v>
       </c>
       <c r="E6">
-        <v>16.69705747135992</v>
+        <v>16.69705747135995</v>
       </c>
       <c r="F6">
-        <v>35.36101940553253</v>
+        <v>35.36101940553297</v>
       </c>
       <c r="G6">
-        <v>27.95631059130124</v>
+        <v>27.95631059130165</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>87.60881443198851</v>
+        <v>87.60881443198866</v>
       </c>
       <c r="K6">
-        <v>10.51931952217017</v>
+        <v>10.51931952217015</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.34203863313952</v>
+        <v>9.342038633139541</v>
       </c>
       <c r="D7">
-        <v>4.499158193877702</v>
+        <v>4.49915819387763</v>
       </c>
       <c r="E7">
-        <v>17.2244944699999</v>
+        <v>17.22449446999991</v>
       </c>
       <c r="F7">
-        <v>36.7825847126376</v>
+        <v>36.78258471263767</v>
       </c>
       <c r="G7">
-        <v>29.13276368393851</v>
+        <v>29.13276368393856</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>90.05802335011158</v>
+        <v>90.05802335011164</v>
       </c>
       <c r="K7">
         <v>10.83990473003866</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.58435571584406</v>
+        <v>10.58435571584408</v>
       </c>
       <c r="D8">
-        <v>5.677263907838497</v>
+        <v>5.677263907838369</v>
       </c>
       <c r="E8">
-        <v>19.55763570293046</v>
+        <v>19.55763570293038</v>
       </c>
       <c r="F8">
-        <v>43.39210378708597</v>
+        <v>43.39210378708567</v>
       </c>
       <c r="G8">
-        <v>34.59826455355422</v>
+        <v>34.59826455355395</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>100.6329898404347</v>
+        <v>100.6329898404345</v>
       </c>
       <c r="K8">
-        <v>12.26038635132634</v>
+        <v>12.26038635132624</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.19696639430148</v>
+        <v>13.19696639430151</v>
       </c>
       <c r="D9">
-        <v>8.509279855802951</v>
+        <v>8.509279855802946</v>
       </c>
       <c r="E9">
-        <v>24.52752786042244</v>
+        <v>24.5275278604225</v>
       </c>
       <c r="F9">
-        <v>58.95875663467013</v>
+        <v>58.95875663466994</v>
       </c>
       <c r="G9">
-        <v>47.47585205684931</v>
+        <v>47.47585205684913</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>121.578118888592</v>
       </c>
       <c r="K9">
-        <v>15.30111421951864</v>
+        <v>15.30111421951867</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>15.77682394327737</v>
+        <v>15.77682394327744</v>
       </c>
       <c r="D10">
-        <v>11.81024116295194</v>
+        <v>11.81024116295208</v>
       </c>
       <c r="E10">
-        <v>29.58092579123157</v>
+        <v>29.5809257912316</v>
       </c>
       <c r="F10">
-        <v>76.39639075021698</v>
+        <v>76.39639075021721</v>
       </c>
       <c r="G10">
-        <v>61.94934888653962</v>
+        <v>61.94934888653984</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.77682394327737</v>
+        <v>15.77682394327744</v>
       </c>
       <c r="D11">
-        <v>11.81024116295194</v>
+        <v>11.81024116295208</v>
       </c>
       <c r="E11">
-        <v>29.58092579123157</v>
+        <v>29.5809257912316</v>
       </c>
       <c r="F11">
-        <v>76.39639075021698</v>
+        <v>76.39639075021721</v>
       </c>
       <c r="G11">
-        <v>61.94934888653962</v>
+        <v>61.94934888653984</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.77682394327737</v>
+        <v>15.77682394327744</v>
       </c>
       <c r="D12">
-        <v>11.81024116295194</v>
+        <v>11.81024116295208</v>
       </c>
       <c r="E12">
-        <v>29.58092579123157</v>
+        <v>29.5809257912316</v>
       </c>
       <c r="F12">
-        <v>76.39639075021698</v>
+        <v>76.39639075021721</v>
       </c>
       <c r="G12">
-        <v>61.94934888653962</v>
+        <v>61.94934888653984</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.77682394327737</v>
+        <v>15.77682394327744</v>
       </c>
       <c r="D13">
-        <v>11.81024116295194</v>
+        <v>11.81024116295208</v>
       </c>
       <c r="E13">
-        <v>29.58092579123157</v>
+        <v>29.5809257912316</v>
       </c>
       <c r="F13">
-        <v>76.39639075021698</v>
+        <v>76.39639075021721</v>
       </c>
       <c r="G13">
-        <v>61.94934888653962</v>
+        <v>61.94934888653984</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.77682394327737</v>
+        <v>15.77682394327744</v>
       </c>
       <c r="D14">
-        <v>11.81024116295194</v>
+        <v>11.81024116295208</v>
       </c>
       <c r="E14">
-        <v>29.58092579123157</v>
+        <v>29.5809257912316</v>
       </c>
       <c r="F14">
-        <v>76.39639075021698</v>
+        <v>76.39639075021721</v>
       </c>
       <c r="G14">
-        <v>61.94934888653962</v>
+        <v>61.94934888653984</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.77682394327737</v>
+        <v>17.84778165075149</v>
       </c>
       <c r="D15">
-        <v>11.81024116295194</v>
+        <v>14.85193316818738</v>
       </c>
       <c r="E15">
-        <v>29.58092579123157</v>
+        <v>33.83612564941448</v>
       </c>
       <c r="F15">
-        <v>76.39639075021698</v>
+        <v>91.79563471091822</v>
       </c>
       <c r="G15">
-        <v>61.94934888653962</v>
+        <v>74.78953675959654</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>140.1409858576546</v>
+        <v>152.9668461328408</v>
       </c>
       <c r="K15">
-        <v>18.42280922777155</v>
+        <v>21.09000458350302</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.77682394327737</v>
+        <v>15.67565760776195</v>
       </c>
       <c r="D16">
-        <v>11.81024116295194</v>
+        <v>11.67080299183577</v>
       </c>
       <c r="E16">
-        <v>29.58092579123157</v>
+        <v>29.37865096064375</v>
       </c>
       <c r="F16">
-        <v>76.39639075021698</v>
+        <v>75.67521029533781</v>
       </c>
       <c r="G16">
-        <v>61.94934888653962</v>
+        <v>61.34945039923642</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>140.1409858576546</v>
+        <v>139.4614594753546</v>
       </c>
       <c r="K16">
-        <v>18.42280922777155</v>
+        <v>18.29705831532875</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.77682394327737</v>
+        <v>14.88820323236277</v>
       </c>
       <c r="D17">
-        <v>11.81024116295194</v>
+        <v>10.6138502203034</v>
       </c>
       <c r="E17">
-        <v>29.58092579123157</v>
+        <v>27.81739565706233</v>
       </c>
       <c r="F17">
-        <v>76.39639075021698</v>
+        <v>70.16477140644575</v>
       </c>
       <c r="G17">
-        <v>61.94934888653962</v>
+        <v>56.76962525533051</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>140.1409858576546</v>
+        <v>134.0268963267485</v>
       </c>
       <c r="K17">
-        <v>18.42280922777155</v>
+        <v>17.32895626301463</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.77682394327737</v>
+        <v>14.49055594489777</v>
       </c>
       <c r="D18">
-        <v>11.81024116295194</v>
+        <v>10.09898275137085</v>
       </c>
       <c r="E18">
-        <v>29.58092579123157</v>
+        <v>27.03690867047505</v>
       </c>
       <c r="F18">
-        <v>76.39639075021698</v>
+        <v>67.45224832545853</v>
       </c>
       <c r="G18">
-        <v>61.94934888653962</v>
+        <v>54.51765123703976</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>140.1409858576546</v>
+        <v>131.1903438958839</v>
       </c>
       <c r="K18">
-        <v>18.42280922777155</v>
+        <v>16.84650649166672</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.77682394327737</v>
+        <v>14.36233122558081</v>
       </c>
       <c r="D19">
-        <v>11.81024116295194</v>
+        <v>9.935620921066654</v>
       </c>
       <c r="E19">
-        <v>29.58092579123157</v>
+        <v>26.78623947727533</v>
       </c>
       <c r="F19">
-        <v>76.39639075021698</v>
+        <v>66.58769643777636</v>
       </c>
       <c r="G19">
-        <v>61.94934888653962</v>
+        <v>53.80021473906368</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>140.1409858576546</v>
+        <v>130.2632369458013</v>
       </c>
       <c r="K19">
-        <v>18.42280922777155</v>
+        <v>16.69175259510637</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.77682394327737</v>
+        <v>14.96542022115846</v>
       </c>
       <c r="D20">
-        <v>11.81024116295194</v>
+        <v>10.71528663591427</v>
       </c>
       <c r="E20">
-        <v>29.58092579123157</v>
+        <v>27.96953073967365</v>
       </c>
       <c r="F20">
-        <v>76.39639075021698</v>
+        <v>70.69698634014328</v>
       </c>
       <c r="G20">
-        <v>61.94934888653962</v>
+        <v>57.21166328918306</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>140.1409858576546</v>
+        <v>134.5707667442775</v>
       </c>
       <c r="K20">
-        <v>18.42280922777155</v>
+        <v>17.42310843753018</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.77682394327737</v>
+        <v>14.96542022115846</v>
       </c>
       <c r="D21">
-        <v>11.81024116295194</v>
+        <v>10.71528663591427</v>
       </c>
       <c r="E21">
-        <v>29.58092579123157</v>
+        <v>27.96953073967365</v>
       </c>
       <c r="F21">
-        <v>76.39639075021698</v>
+        <v>70.69698634014328</v>
       </c>
       <c r="G21">
-        <v>61.94934888653962</v>
+        <v>57.21166328918306</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>140.1409858576546</v>
+        <v>134.5707667442775</v>
       </c>
       <c r="K21">
-        <v>18.42280922777155</v>
+        <v>17.42310843753018</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.77682394327737</v>
+        <v>14.96542022115846</v>
       </c>
       <c r="D22">
-        <v>11.81024116295194</v>
+        <v>10.71528663591427</v>
       </c>
       <c r="E22">
-        <v>29.58092579123157</v>
+        <v>27.96953073967365</v>
       </c>
       <c r="F22">
-        <v>76.39639075021698</v>
+        <v>70.69698634014328</v>
       </c>
       <c r="G22">
-        <v>61.94934888653962</v>
+        <v>57.21166328918306</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>140.1409858576546</v>
+        <v>134.5707667442775</v>
       </c>
       <c r="K22">
-        <v>18.42280922777155</v>
+        <v>17.42310843753018</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.77682394327737</v>
+        <v>14.96542022115846</v>
       </c>
       <c r="D23">
-        <v>11.81024116295194</v>
+        <v>10.71528663591427</v>
       </c>
       <c r="E23">
-        <v>29.58092579123157</v>
+        <v>27.96953073967365</v>
       </c>
       <c r="F23">
-        <v>76.39639075021698</v>
+        <v>70.69698634014328</v>
       </c>
       <c r="G23">
-        <v>61.94934888653962</v>
+        <v>57.21166328918306</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>140.1409858576546</v>
+        <v>134.5707667442775</v>
       </c>
       <c r="K23">
-        <v>18.42280922777155</v>
+        <v>17.42310843753018</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>15.77682394327737</v>
+        <v>14.96542022115846</v>
       </c>
       <c r="D24">
-        <v>11.81024116295194</v>
+        <v>10.71528663591427</v>
       </c>
       <c r="E24">
-        <v>29.58092579123157</v>
+        <v>27.96953073967365</v>
       </c>
       <c r="F24">
-        <v>76.39639075021698</v>
+        <v>70.69698634014328</v>
       </c>
       <c r="G24">
-        <v>61.94934888653962</v>
+        <v>57.21166328918306</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>140.1409858576546</v>
+        <v>134.5707667442775</v>
       </c>
       <c r="K24">
-        <v>18.42280922777155</v>
+        <v>17.42310843753018</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>15.77682394327737</v>
+        <v>14.96542022115846</v>
       </c>
       <c r="D25">
-        <v>11.81024116295194</v>
+        <v>10.71528663591427</v>
       </c>
       <c r="E25">
-        <v>29.58092579123157</v>
+        <v>27.96953073967365</v>
       </c>
       <c r="F25">
-        <v>76.39639075021698</v>
+        <v>70.69698634014328</v>
       </c>
       <c r="G25">
-        <v>61.94934888653962</v>
+        <v>57.21166328918306</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>140.1409858576546</v>
+        <v>134.5707667442775</v>
       </c>
       <c r="K25">
-        <v>18.42280922777155</v>
+        <v>17.42310843753018</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.92497098567994</v>
+        <v>10.92497098568013</v>
       </c>
       <c r="D2">
-        <v>6.018861413550264</v>
+        <v>6.018861413550384</v>
       </c>
       <c r="E2">
-        <v>20.20006492120149</v>
+        <v>20.20006492120158</v>
       </c>
       <c r="F2">
-        <v>45.29704998043105</v>
+        <v>45.29704998043149</v>
       </c>
       <c r="G2">
-        <v>36.17305097239536</v>
+        <v>36.17305097239575</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>103.4670177840638</v>
+        <v>103.4670177840641</v>
       </c>
       <c r="K2">
         <v>12.65222557590332</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.943518581526234</v>
+        <v>9.943518581526085</v>
       </c>
       <c r="D3">
-        <v>5.056354802692299</v>
+        <v>5.056354802692044</v>
       </c>
       <c r="E3">
-        <v>18.35232984719126</v>
+        <v>18.35232984719129</v>
       </c>
       <c r="F3">
-        <v>39.9147239945154</v>
+        <v>39.91472399451514</v>
       </c>
       <c r="G3">
-        <v>31.72335139542225</v>
+        <v>31.72335139542201</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>95.22385862155062</v>
+        <v>95.22385862155045</v>
       </c>
       <c r="K3">
-        <v>11.52607243707364</v>
+        <v>11.5260724370737</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.345330488700215</v>
+        <v>9.345330488700206</v>
       </c>
       <c r="D4">
-        <v>4.50214077309287</v>
+        <v>4.502140773092785</v>
       </c>
       <c r="E4">
         <v>17.2306590527578</v>
       </c>
       <c r="F4">
-        <v>36.79936703584168</v>
+        <v>36.7993670358417</v>
       </c>
       <c r="G4">
         <v>29.14664921649762</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>90.086525157038</v>
+        <v>90.08652515703818</v>
       </c>
       <c r="K4">
-        <v>10.84365280280748</v>
+        <v>10.84365280280746</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.10090136109878</v>
+        <v>9.100901361098789</v>
       </c>
       <c r="D5">
-        <v>4.28267174192913</v>
+        <v>4.282671741929515</v>
       </c>
       <c r="E5">
-        <v>16.77313889480716</v>
+        <v>16.77313889480717</v>
       </c>
       <c r="F5">
-        <v>35.56430845478215</v>
+        <v>35.56430845478245</v>
       </c>
       <c r="G5">
-        <v>28.12458232658793</v>
+        <v>28.12458232658825</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>87.96339493080944</v>
+        <v>87.9633949308096</v>
       </c>
       <c r="K5">
         <v>10.56555130420061</v>
@@ -570,16 +570,16 @@
         <v>9.060233031297914</v>
       </c>
       <c r="D6">
-        <v>4.246548458540132</v>
+        <v>4.24654845854</v>
       </c>
       <c r="E6">
-        <v>16.69705747135995</v>
+        <v>16.69705747135992</v>
       </c>
       <c r="F6">
-        <v>35.36101940553297</v>
+        <v>35.36101940553253</v>
       </c>
       <c r="G6">
-        <v>27.95631059130165</v>
+        <v>27.95631059130124</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>87.60881443198866</v>
+        <v>87.60881443198851</v>
       </c>
       <c r="K6">
-        <v>10.51931952217015</v>
+        <v>10.51931952217017</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.342038633139541</v>
+        <v>9.34203863313952</v>
       </c>
       <c r="D7">
-        <v>4.49915819387763</v>
+        <v>4.499158193877702</v>
       </c>
       <c r="E7">
-        <v>17.22449446999991</v>
+        <v>17.2244944699999</v>
       </c>
       <c r="F7">
-        <v>36.78258471263767</v>
+        <v>36.7825847126376</v>
       </c>
       <c r="G7">
-        <v>29.13276368393856</v>
+        <v>29.13276368393851</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>90.05802335011164</v>
+        <v>90.05802335011158</v>
       </c>
       <c r="K7">
         <v>10.83990473003866</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.58435571584408</v>
+        <v>10.58435571584406</v>
       </c>
       <c r="D8">
-        <v>5.677263907838369</v>
+        <v>5.677263907838497</v>
       </c>
       <c r="E8">
-        <v>19.55763570293038</v>
+        <v>19.55763570293046</v>
       </c>
       <c r="F8">
-        <v>43.39210378708567</v>
+        <v>43.39210378708597</v>
       </c>
       <c r="G8">
-        <v>34.59826455355395</v>
+        <v>34.59826455355422</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>100.6329898404345</v>
+        <v>100.6329898404347</v>
       </c>
       <c r="K8">
-        <v>12.26038635132624</v>
+        <v>12.26038635132634</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.19696639430151</v>
+        <v>13.19696639430148</v>
       </c>
       <c r="D9">
-        <v>8.509279855802946</v>
+        <v>8.509279855802951</v>
       </c>
       <c r="E9">
-        <v>24.5275278604225</v>
+        <v>24.52752786042244</v>
       </c>
       <c r="F9">
-        <v>58.95875663466994</v>
+        <v>58.95875663467013</v>
       </c>
       <c r="G9">
-        <v>47.47585205684913</v>
+        <v>47.47585205684931</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>121.578118888592</v>
       </c>
       <c r="K9">
-        <v>15.30111421951867</v>
+        <v>15.30111421951864</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>15.77682394327744</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D10">
-        <v>11.81024116295208</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E10">
-        <v>29.5809257912316</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F10">
-        <v>76.39639075021721</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G10">
-        <v>61.94934888653984</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.77682394327744</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D11">
-        <v>11.81024116295208</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E11">
-        <v>29.5809257912316</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F11">
-        <v>76.39639075021721</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G11">
-        <v>61.94934888653984</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.77682394327744</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D12">
-        <v>11.81024116295208</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E12">
-        <v>29.5809257912316</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F12">
-        <v>76.39639075021721</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G12">
-        <v>61.94934888653984</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.77682394327744</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D13">
-        <v>11.81024116295208</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E13">
-        <v>29.5809257912316</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F13">
-        <v>76.39639075021721</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G13">
-        <v>61.94934888653984</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.77682394327744</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D14">
-        <v>11.81024116295208</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E14">
-        <v>29.5809257912316</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F14">
-        <v>76.39639075021721</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G14">
-        <v>61.94934888653984</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>17.84778165075149</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D15">
-        <v>14.85193316818738</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E15">
-        <v>33.83612564941448</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F15">
-        <v>91.79563471091822</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G15">
-        <v>74.78953675959654</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>152.9668461328408</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K15">
-        <v>21.09000458350302</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.67565760776195</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D16">
-        <v>11.67080299183577</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E16">
-        <v>29.37865096064375</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F16">
-        <v>75.67521029533781</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G16">
-        <v>61.34945039923642</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>139.4614594753546</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K16">
-        <v>18.29705831532875</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.88820323236277</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D17">
-        <v>10.6138502203034</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E17">
-        <v>27.81739565706233</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F17">
-        <v>70.16477140644575</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G17">
-        <v>56.76962525533051</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>134.0268963267485</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K17">
-        <v>17.32895626301463</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.49055594489777</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D18">
-        <v>10.09898275137085</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E18">
-        <v>27.03690867047505</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F18">
-        <v>67.45224832545853</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G18">
-        <v>54.51765123703976</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>131.1903438958839</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K18">
-        <v>16.84650649166672</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.36233122558081</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D19">
-        <v>9.935620921066654</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E19">
-        <v>26.78623947727533</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F19">
-        <v>66.58769643777636</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G19">
-        <v>53.80021473906368</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>130.2632369458013</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K19">
-        <v>16.69175259510637</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.96542022115846</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D20">
-        <v>10.71528663591427</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E20">
-        <v>27.96953073967365</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F20">
-        <v>70.69698634014328</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G20">
-        <v>57.21166328918306</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>134.5707667442775</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K20">
-        <v>17.42310843753018</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.96542022115846</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D21">
-        <v>10.71528663591427</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E21">
-        <v>27.96953073967365</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F21">
-        <v>70.69698634014328</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G21">
-        <v>57.21166328918306</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>134.5707667442775</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K21">
-        <v>17.42310843753018</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.96542022115846</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D22">
-        <v>10.71528663591427</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E22">
-        <v>27.96953073967365</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F22">
-        <v>70.69698634014328</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G22">
-        <v>57.21166328918306</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>134.5707667442775</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K22">
-        <v>17.42310843753018</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.96542022115846</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D23">
-        <v>10.71528663591427</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E23">
-        <v>27.96953073967365</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F23">
-        <v>70.69698634014328</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G23">
-        <v>57.21166328918306</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>134.5707667442775</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K23">
-        <v>17.42310843753018</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.96542022115846</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D24">
-        <v>10.71528663591427</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E24">
-        <v>27.96953073967365</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F24">
-        <v>70.69698634014328</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G24">
-        <v>57.21166328918306</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>134.5707667442775</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K24">
-        <v>17.42310843753018</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>14.96542022115846</v>
+        <v>15.77682394327737</v>
       </c>
       <c r="D25">
-        <v>10.71528663591427</v>
+        <v>11.81024116295194</v>
       </c>
       <c r="E25">
-        <v>27.96953073967365</v>
+        <v>29.58092579123157</v>
       </c>
       <c r="F25">
-        <v>70.69698634014328</v>
+        <v>76.39639075021698</v>
       </c>
       <c r="G25">
-        <v>57.21166328918306</v>
+        <v>61.94934888653962</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>134.5707667442775</v>
+        <v>140.1409858576546</v>
       </c>
       <c r="K25">
-        <v>17.42310843753018</v>
+        <v>18.42280922777155</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.92497098568013</v>
+        <v>10.92309756326522</v>
       </c>
       <c r="D2">
-        <v>6.018861413550384</v>
+        <v>6.0087704919506</v>
       </c>
       <c r="E2">
-        <v>20.20006492120158</v>
+        <v>20.19648876746432</v>
       </c>
       <c r="F2">
-        <v>45.29704998043149</v>
+        <v>45.24471019388704</v>
       </c>
       <c r="G2">
-        <v>36.17305097239575</v>
+        <v>36.21529569700101</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>35.32949149927112</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>103.4670177840641</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.65222557590332</v>
+        <v>103.4545309792754</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.65007331566737</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.943518581526085</v>
+        <v>9.942245982439983</v>
       </c>
       <c r="D3">
-        <v>5.056354802692044</v>
+        <v>5.048069817591615</v>
       </c>
       <c r="E3">
-        <v>18.35232984719129</v>
+        <v>18.34991622519401</v>
       </c>
       <c r="F3">
-        <v>39.91472399451514</v>
+        <v>39.87054409267801</v>
       </c>
       <c r="G3">
-        <v>31.72335139542201</v>
+        <v>31.76182997801983</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>30.98248006295319</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>95.22385862155045</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>11.5260724370737</v>
+        <v>95.21516853343741</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>11.52462975263748</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.345330488700206</v>
+        <v>9.344340435787236</v>
       </c>
       <c r="D4">
-        <v>4.502140773092785</v>
+        <v>4.494803284258494</v>
       </c>
       <c r="E4">
-        <v>17.2306590527578</v>
+        <v>17.22878712448901</v>
       </c>
       <c r="F4">
-        <v>36.7993670358417</v>
+        <v>36.75943472535693</v>
       </c>
       <c r="G4">
-        <v>29.14664921649762</v>
+        <v>29.18258797581412</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>28.48425672563975</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>90.08652515703818</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10.84365280280746</v>
+        <v>90.07966177947056</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>10.8425389676815</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.100901361098789</v>
+        <v>9.100011998413418</v>
       </c>
       <c r="D5">
-        <v>4.282671741929515</v>
+        <v>4.275693012853221</v>
       </c>
       <c r="E5">
-        <v>16.77313889480717</v>
+        <v>16.7714591492653</v>
       </c>
       <c r="F5">
-        <v>35.56430845478245</v>
+        <v>35.52597993624396</v>
       </c>
       <c r="G5">
-        <v>28.12458232658825</v>
+        <v>28.159456661079</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>27.4984372596177</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>87.9633949308096</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>10.56555130420061</v>
+        <v>87.95719073347128</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>10.56455378034383</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.060233031297914</v>
+        <v>9.059359666558436</v>
       </c>
       <c r="D6">
-        <v>4.24654845854</v>
+        <v>4.239627921735927</v>
       </c>
       <c r="E6">
-        <v>16.69705747135992</v>
+        <v>16.69540821693564</v>
       </c>
       <c r="F6">
-        <v>35.36101940553253</v>
+        <v>35.32295086850338</v>
       </c>
       <c r="G6">
-        <v>27.95631059130124</v>
+        <v>27.99100695567103</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>27.33645439126927</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>87.60881443198851</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>10.51931952217017</v>
+        <v>87.60271541680063</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>10.51834043206898</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.34203863313952</v>
+        <v>9.341049989515831</v>
       </c>
       <c r="D7">
-        <v>4.499158193877702</v>
+        <v>4.491825641208969</v>
       </c>
       <c r="E7">
-        <v>17.2244944699999</v>
+        <v>17.22262523478894</v>
       </c>
       <c r="F7">
-        <v>36.7825847126376</v>
+        <v>36.74267448221483</v>
       </c>
       <c r="G7">
-        <v>29.13276368393851</v>
+        <v>29.16868818090283</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>28.47084221371381</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>90.05802335011158</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>10.83990473003866</v>
+        <v>90.05116916622021</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>10.83879252620894</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.58435571584406</v>
+        <v>10.58271309562586</v>
       </c>
       <c r="D8">
-        <v>5.677263907838497</v>
+        <v>5.667839572892794</v>
       </c>
       <c r="E8">
-        <v>19.55763570293046</v>
+        <v>19.55450772600475</v>
       </c>
       <c r="F8">
-        <v>43.39210378708597</v>
+        <v>43.34278637802137</v>
       </c>
       <c r="G8">
-        <v>34.59826455355422</v>
+        <v>34.63928051343727</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>33.78712762277291</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>100.6329898404347</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>12.26038635132634</v>
+        <v>100.6219494112339</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.25850817111854</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.19696639430148</v>
+        <v>13.1925851971348</v>
       </c>
       <c r="D9">
-        <v>8.509279855802951</v>
+        <v>8.493086658828988</v>
       </c>
       <c r="E9">
-        <v>24.52752786042244</v>
+        <v>24.51898288792131</v>
       </c>
       <c r="F9">
-        <v>58.95875663467013</v>
+        <v>58.87822855533595</v>
       </c>
       <c r="G9">
-        <v>47.47585205684931</v>
+        <v>47.52165576319312</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>46.47886235055915</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>121.578118888592</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>15.30111421951864</v>
+        <v>121.5505361437546</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15.29589554668194</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D10">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E10">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F10">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G10">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D11">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E11">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F11">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G11">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D12">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E12">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F12">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G12">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D13">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E13">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F13">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G13">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D14">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E14">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F14">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G14">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D15">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E15">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F15">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G15">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D16">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E16">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F16">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G16">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D17">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E17">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F17">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G17">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D18">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E18">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F18">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G18">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D19">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E19">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F19">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G19">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D20">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E20">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F20">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G20">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D21">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E21">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F21">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G21">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D22">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E22">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F22">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G22">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D23">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E23">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F23">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G23">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D24">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E24">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F24">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G24">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>15.77682394327737</v>
+        <v>15.76383141972989</v>
       </c>
       <c r="D25">
-        <v>11.81024116295194</v>
+        <v>11.77761003007252</v>
       </c>
       <c r="E25">
-        <v>29.58092579123157</v>
+        <v>29.55457991518409</v>
       </c>
       <c r="F25">
-        <v>76.39639075021698</v>
+        <v>76.23743475480384</v>
       </c>
       <c r="G25">
-        <v>61.94934888653962</v>
+        <v>61.96446698771815</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>60.8398398064471</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>140.1409858576546</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.42280922777155</v>
+        <v>140.0651895422203</v>
       </c>
       <c r="L25">
+        <v>18.40643091823753</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.92309756326522</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6.0087704919506</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>20.19648876746432</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>45.24471019388704</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>36.21529569700101</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>35.32949149927112</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,16 +448,22 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>103.4545309792754</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.65007331566737</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.942245982439983</v>
+        <v>7.994608540441773</v>
       </c>
       <c r="D3">
-        <v>5.048069817591615</v>
+        <v>24.14334164531025</v>
       </c>
       <c r="E3">
-        <v>18.34991622519401</v>
+        <v>19.78588565366924</v>
       </c>
       <c r="F3">
-        <v>39.87054409267801</v>
+        <v>110.26625939187</v>
       </c>
       <c r="G3">
-        <v>31.76182997801983</v>
+        <v>1.747503172053395</v>
       </c>
       <c r="H3">
-        <v>30.98248006295319</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.502132644258764</v>
       </c>
       <c r="K3">
-        <v>95.21516853343741</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>11.52462975263748</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>62.16780223192256</v>
+      </c>
+      <c r="N3">
+        <v>12.47989032803672</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.344340435787236</v>
+        <v>7.2752762014802</v>
       </c>
       <c r="D4">
-        <v>4.494803284258494</v>
+        <v>21.88441084561153</v>
       </c>
       <c r="E4">
-        <v>17.22878712448901</v>
+        <v>18.09883460928616</v>
       </c>
       <c r="F4">
-        <v>36.75943472535693</v>
+        <v>100.515159870663</v>
       </c>
       <c r="G4">
-        <v>29.18258797581412</v>
+        <v>1.826724740651223</v>
       </c>
       <c r="H4">
-        <v>28.48425672563975</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.420534345689579</v>
       </c>
       <c r="K4">
-        <v>90.07966177947056</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>10.8425389676815</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>57.13477462736787</v>
+      </c>
+      <c r="N4">
+        <v>12.64067906653492</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.100011998413418</v>
+        <v>7.015125000699328</v>
       </c>
       <c r="D5">
-        <v>4.275693012853221</v>
+        <v>21.07301492840878</v>
       </c>
       <c r="E5">
-        <v>16.7714591492653</v>
+        <v>17.48709396299438</v>
       </c>
       <c r="F5">
-        <v>35.52597993624396</v>
+        <v>97.06669053893988</v>
       </c>
       <c r="G5">
-        <v>28.159456661079</v>
+        <v>1.854152495035937</v>
       </c>
       <c r="H5">
-        <v>27.4984372596177</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.393450510040084</v>
       </c>
       <c r="K5">
-        <v>87.95719073347128</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>10.56455378034383</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>55.2879618948044</v>
+      </c>
+      <c r="N5">
+        <v>12.68817714191245</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.059359666558436</v>
+        <v>6.973156941685212</v>
       </c>
       <c r="D6">
-        <v>4.239627921735927</v>
+        <v>20.94238814344783</v>
       </c>
       <c r="E6">
-        <v>16.69540821693564</v>
+        <v>17.38830611340717</v>
       </c>
       <c r="F6">
-        <v>35.32295086850338</v>
+        <v>96.51468411654204</v>
       </c>
       <c r="G6">
-        <v>27.99100695567103</v>
+        <v>1.858517623202213</v>
       </c>
       <c r="H6">
-        <v>27.33645439126927</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.389198441773559</v>
       </c>
       <c r="K6">
-        <v>87.60271541680063</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>10.51834043206898</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>54.98879719031705</v>
+      </c>
+      <c r="N6">
+        <v>12.69538959163401</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.341049989515831</v>
+        <v>7.271673174601376</v>
       </c>
       <c r="D7">
-        <v>4.491825641208969</v>
+        <v>21.87315349495808</v>
       </c>
       <c r="E7">
-        <v>17.22262523478894</v>
+        <v>18.09036912253513</v>
       </c>
       <c r="F7">
-        <v>36.74267448221483</v>
+        <v>100.4670949698636</v>
       </c>
       <c r="G7">
-        <v>29.16868818090283</v>
+        <v>1.827108976979173</v>
       </c>
       <c r="H7">
-        <v>28.47084221371381</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.420150648776389</v>
       </c>
       <c r="K7">
-        <v>90.05116916622021</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>10.83879252620894</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>57.10928864936553</v>
+      </c>
+      <c r="N7">
+        <v>12.64137137275505</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.58271309562586</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D8">
-        <v>5.667839572892794</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E8">
-        <v>19.55450772600475</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F8">
-        <v>43.34278637802137</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G8">
-        <v>34.63928051343727</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H8">
-        <v>33.78712762277291</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K8">
-        <v>100.6219494112339</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>12.25850817111854</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N8">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.1925851971348</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D9">
-        <v>8.493086658828988</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E9">
-        <v>24.51898288792131</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F9">
-        <v>58.87822855533595</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G9">
-        <v>47.52165576319312</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H9">
-        <v>46.47886235055915</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K9">
-        <v>121.5505361437546</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>15.29589554668194</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N9">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D10">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E10">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F10">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G10">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H10">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K10">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N10">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D11">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E11">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F11">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G11">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H11">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K11">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N11">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D12">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E12">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F12">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G12">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H12">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K12">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N12">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D13">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E13">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F13">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G13">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H13">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K13">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N13">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D14">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E14">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F14">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G14">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H14">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K14">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N14">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D15">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E15">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F15">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G15">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H15">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K15">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N15">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D16">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E16">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F16">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G16">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H16">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K16">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N16">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D17">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E17">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F17">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G17">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H17">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K17">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N17">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D18">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E18">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F18">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G18">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H18">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K18">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N18">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D19">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E19">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F19">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G19">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H19">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K19">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N19">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D20">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E20">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F20">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G20">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H20">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K20">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N20">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D21">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E21">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F21">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G21">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H21">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K21">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N21">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D22">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E22">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F22">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G22">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H22">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K22">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N22">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D23">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E23">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F23">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G23">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H23">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K23">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N23">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D24">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E24">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F24">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G24">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H24">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K24">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N24">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>15.76383141972989</v>
+        <v>9.105902691508721</v>
       </c>
       <c r="D25">
-        <v>11.77761003007252</v>
+        <v>27.68270139764843</v>
       </c>
       <c r="E25">
-        <v>29.55457991518409</v>
+        <v>22.38959906208032</v>
       </c>
       <c r="F25">
-        <v>76.23743475480384</v>
+        <v>125.8325905844505</v>
       </c>
       <c r="G25">
-        <v>61.96446698771815</v>
+        <v>1.614859141052426</v>
       </c>
       <c r="H25">
-        <v>60.8398398064471</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.65017638077576</v>
       </c>
       <c r="K25">
-        <v>140.0651895422203</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>18.40643091823753</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>69.70370091771449</v>
+      </c>
+      <c r="N25">
+        <v>12.1181165877669</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.754570565207351</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.760021933443719</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9.080101044471707</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>50.92046294784256</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>82.04606876174981</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>20.42395245979107</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>38.31737486657379</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>17.86272768354581</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.994608540441773</v>
+        <v>7.159327511984527</v>
       </c>
       <c r="D3">
-        <v>24.14334164531025</v>
+        <v>5.293285201327239</v>
       </c>
       <c r="E3">
-        <v>19.78588565366924</v>
+        <v>8.833608147051375</v>
       </c>
       <c r="F3">
-        <v>110.26625939187</v>
+        <v>46.9080924883967</v>
       </c>
       <c r="G3">
-        <v>1.747503172053395</v>
+        <v>75.54729927437991</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>18.81425726142787</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.502132644258764</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>62.16780223192256</v>
+        <v>35.58057758189677</v>
       </c>
       <c r="N3">
-        <v>12.47989032803672</v>
+        <v>17.17275831276573</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.2752762014802</v>
+        <v>6.781008382981324</v>
       </c>
       <c r="D4">
-        <v>21.88441084561153</v>
+        <v>5.000184677723848</v>
       </c>
       <c r="E4">
-        <v>18.09883460928616</v>
+        <v>8.675994100660814</v>
       </c>
       <c r="F4">
-        <v>100.515159870663</v>
+        <v>44.37704571113292</v>
       </c>
       <c r="G4">
-        <v>1.826724740651223</v>
+        <v>71.44883891630636</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>17.80015628269318</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.420534345689579</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>57.13477462736787</v>
+        <v>33.82491715939867</v>
       </c>
       <c r="N4">
-        <v>12.64067906653492</v>
+        <v>16.73890113326895</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.015125000699328</v>
+        <v>6.623379888880381</v>
       </c>
       <c r="D5">
-        <v>21.07301492840878</v>
+        <v>4.878849147345514</v>
       </c>
       <c r="E5">
-        <v>17.48709396299438</v>
+        <v>8.610429545550957</v>
       </c>
       <c r="F5">
-        <v>97.06669053893988</v>
+        <v>43.32718002356412</v>
       </c>
       <c r="G5">
-        <v>1.854152495035937</v>
+        <v>69.74899567992865</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>17.37983711145557</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.393450510040084</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>55.2879618948044</v>
+        <v>33.0897920481039</v>
       </c>
       <c r="N5">
-        <v>12.68817714191245</v>
+        <v>16.55976065374649</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.973156941685212</v>
+        <v>6.596990622636975</v>
       </c>
       <c r="D6">
-        <v>20.94238814344783</v>
+        <v>4.858580315910691</v>
       </c>
       <c r="E6">
-        <v>17.38830611340717</v>
+        <v>8.599468938253253</v>
       </c>
       <c r="F6">
-        <v>96.51468411654204</v>
+        <v>43.15169924687844</v>
       </c>
       <c r="G6">
-        <v>1.858517623202213</v>
+        <v>69.46488215490619</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>17.30960198392854</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.389198441773559</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>54.98879719031705</v>
+        <v>32.96651649178147</v>
       </c>
       <c r="N6">
-        <v>12.69538959163401</v>
+        <v>16.5298804247496</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.271673174601376</v>
+        <v>6.778896844283297</v>
       </c>
       <c r="D7">
-        <v>21.87315349495808</v>
+        <v>4.998556284611713</v>
       </c>
       <c r="E7">
-        <v>18.09036912253513</v>
+        <v>8.675114965328422</v>
       </c>
       <c r="F7">
-        <v>100.4670949698636</v>
+        <v>44.36296326701245</v>
       </c>
       <c r="G7">
-        <v>1.827108976979173</v>
+        <v>71.42603734633536</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>17.79451700127336</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.420150648776389</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>57.10928864936553</v>
+        <v>33.81508360468977</v>
       </c>
       <c r="N7">
-        <v>12.64137137275505</v>
+        <v>16.7364943339879</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.105902691508721</v>
+        <v>7.5518441733783</v>
       </c>
       <c r="D8">
-        <v>27.68270139764843</v>
+        <v>5.600278485598648</v>
       </c>
       <c r="E8">
-        <v>22.38959906208032</v>
+        <v>8.996556022339865</v>
       </c>
       <c r="F8">
-        <v>125.8325905844505</v>
+        <v>49.54999369034056</v>
       </c>
       <c r="G8">
-        <v>1.614859141052426</v>
+        <v>79.82608260879562</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>19.87387158464544</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>69.70370091771449</v>
+        <v>37.3888541170111</v>
       </c>
       <c r="N8">
-        <v>12.1181165877669</v>
+        <v>17.62707351392725</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.105902691508721</v>
+        <v>8.978471693744151</v>
       </c>
       <c r="D9">
-        <v>27.68270139764843</v>
+        <v>6.742635002017614</v>
       </c>
       <c r="E9">
-        <v>22.38959906208032</v>
+        <v>9.566220603470125</v>
       </c>
       <c r="F9">
-        <v>125.8325905844505</v>
+        <v>59.27423957939344</v>
       </c>
       <c r="G9">
-        <v>1.614859141052426</v>
+        <v>95.58548222122307</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>23.78254122261207</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>69.70370091771449</v>
+        <v>43.84153231398319</v>
       </c>
       <c r="N9">
-        <v>12.1181165877669</v>
+        <v>19.28397981659176</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.105902691508721</v>
+        <v>9.995089177592241</v>
       </c>
       <c r="D10">
-        <v>27.68270139764843</v>
+        <v>7.584622635928476</v>
       </c>
       <c r="E10">
-        <v>22.38959906208032</v>
+        <v>9.931709761654036</v>
       </c>
       <c r="F10">
-        <v>125.8325905844505</v>
+        <v>66.31019586700874</v>
       </c>
       <c r="G10">
-        <v>1.614859141052426</v>
+        <v>107.0011825958458</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>26.61808167198965</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>69.70370091771449</v>
+        <v>48.31845263802077</v>
       </c>
       <c r="N10">
-        <v>12.1181165877669</v>
+        <v>20.43748962498255</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.105902691508721</v>
+        <v>10.45800947929447</v>
       </c>
       <c r="D11">
-        <v>27.68270139764843</v>
+        <v>7.976564576941933</v>
       </c>
       <c r="E11">
-        <v>22.38959906208032</v>
+        <v>10.08238843878977</v>
       </c>
       <c r="F11">
-        <v>125.8325905844505</v>
+        <v>69.54182175031892</v>
       </c>
       <c r="G11">
-        <v>1.614859141052426</v>
+        <v>112.2488803603606</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>27.92241879091372</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>69.70370091771449</v>
+        <v>50.32174080009073</v>
       </c>
       <c r="N11">
-        <v>12.1181165877669</v>
+        <v>20.94700916976611</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.105902691508721</v>
+        <v>10.63424122363478</v>
       </c>
       <c r="D12">
-        <v>27.68270139764843</v>
+        <v>8.127271540700825</v>
       </c>
       <c r="E12">
-        <v>22.38959906208032</v>
+        <v>10.13678744225564</v>
       </c>
       <c r="F12">
-        <v>125.8325905844505</v>
+        <v>70.77659637782349</v>
       </c>
       <c r="G12">
-        <v>1.614859141052426</v>
+        <v>114.254789126106</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>28.42111810902313</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>69.70370091771449</v>
+        <v>51.07840873499765</v>
       </c>
       <c r="N12">
-        <v>12.1181165877669</v>
+        <v>21.13768202071615</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.105902691508721</v>
+        <v>10.59622785809419</v>
       </c>
       <c r="D13">
-        <v>27.68270139764843</v>
+        <v>8.094692390634759</v>
       </c>
       <c r="E13">
-        <v>22.38959906208032</v>
+        <v>10.12519764161787</v>
       </c>
       <c r="F13">
-        <v>125.8325905844505</v>
+        <v>70.51004431377039</v>
       </c>
       <c r="G13">
-        <v>1.614859141052426</v>
+        <v>113.8217323203568</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>28.3134482043926</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>69.70370091771449</v>
+        <v>50.91547630164166</v>
       </c>
       <c r="N13">
-        <v>12.1181165877669</v>
+        <v>21.09671927456166</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.105902691508721</v>
+        <v>10.47248338693239</v>
       </c>
       <c r="D14">
-        <v>27.68270139764843</v>
+        <v>7.988910432988544</v>
       </c>
       <c r="E14">
-        <v>22.38959906208032</v>
+        <v>10.08691992051368</v>
       </c>
       <c r="F14">
-        <v>125.8325905844505</v>
+        <v>69.64314018749484</v>
       </c>
       <c r="G14">
-        <v>1.614859141052426</v>
+        <v>112.4134562491589</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>27.96333241274078</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>69.70370091771449</v>
+        <v>50.38401113330049</v>
       </c>
       <c r="N14">
-        <v>12.1181165877669</v>
+        <v>20.96274184290927</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.105902691508721</v>
+        <v>10.39683885388109</v>
       </c>
       <c r="D15">
-        <v>27.68270139764843</v>
+        <v>7.924449722108634</v>
       </c>
       <c r="E15">
-        <v>22.38959906208032</v>
+        <v>10.06311331339776</v>
       </c>
       <c r="F15">
-        <v>125.8325905844505</v>
+        <v>69.1138078090474</v>
       </c>
       <c r="G15">
-        <v>1.614859141052426</v>
+        <v>111.5536727053566</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>27.74959484489656</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>69.70370091771449</v>
+        <v>50.05832315290429</v>
       </c>
       <c r="N15">
-        <v>12.1181165877669</v>
+        <v>20.88037899550442</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.105902691508721</v>
+        <v>9.964913190417489</v>
       </c>
       <c r="D16">
-        <v>27.68270139764843</v>
+        <v>7.559265944017836</v>
       </c>
       <c r="E16">
-        <v>22.38959906208032</v>
+        <v>9.921515162391874</v>
       </c>
       <c r="F16">
-        <v>125.8325905844505</v>
+        <v>66.10013620411301</v>
       </c>
       <c r="G16">
-        <v>1.614859141052426</v>
+        <v>106.660178304031</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>26.53334068321502</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>69.70370091771449</v>
+        <v>48.18708580540297</v>
       </c>
       <c r="N16">
-        <v>12.1181165877669</v>
+        <v>20.40387744828994</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.105902691508721</v>
+        <v>9.700590158143225</v>
       </c>
       <c r="D17">
-        <v>27.68270139764843</v>
+        <v>7.338134913287457</v>
       </c>
       <c r="E17">
-        <v>22.38959906208032</v>
+        <v>9.830386143215152</v>
       </c>
       <c r="F17">
-        <v>125.8325905844505</v>
+        <v>64.2632874228391</v>
       </c>
       <c r="G17">
-        <v>1.614859141052426</v>
+        <v>103.6788061123807</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>25.79255246660761</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>69.70370091771449</v>
+        <v>47.03236569544412</v>
       </c>
       <c r="N17">
-        <v>12.1181165877669</v>
+        <v>20.10759458554647</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.105902691508721</v>
+        <v>9.548536198224598</v>
       </c>
       <c r="D18">
-        <v>27.68270139764843</v>
+        <v>7.211709653767643</v>
       </c>
       <c r="E18">
-        <v>22.38959906208032</v>
+        <v>9.776533378467672</v>
       </c>
       <c r="F18">
-        <v>125.8325905844505</v>
+        <v>63.20919467818143</v>
       </c>
       <c r="G18">
-        <v>1.614859141052426</v>
+        <v>101.9683212020709</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>25.36762505369223</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>69.70370091771449</v>
+        <v>46.36485372606051</v>
       </c>
       <c r="N18">
-        <v>12.1181165877669</v>
+        <v>19.93575146150557</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.105902691508721</v>
+        <v>9.497027492788471</v>
       </c>
       <c r="D19">
-        <v>27.68270139764843</v>
+        <v>7.169010041317795</v>
       </c>
       <c r="E19">
-        <v>22.38959906208032</v>
+        <v>9.758064205709132</v>
       </c>
       <c r="F19">
-        <v>125.8325905844505</v>
+        <v>62.85254574255426</v>
       </c>
       <c r="G19">
-        <v>1.614859141052426</v>
+        <v>101.3896487830307</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>25.2238822255456</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>69.70370091771449</v>
+        <v>46.13819845846882</v>
       </c>
       <c r="N19">
-        <v>12.1181165877669</v>
+        <v>19.87732582641354</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.105902691508721</v>
+        <v>9.728724720716741</v>
       </c>
       <c r="D20">
-        <v>27.68270139764843</v>
+        <v>7.361589470618732</v>
       </c>
       <c r="E20">
-        <v>22.38959906208032</v>
+        <v>9.840238539878479</v>
       </c>
       <c r="F20">
-        <v>125.8325905844505</v>
+        <v>64.45853261742776</v>
       </c>
       <c r="G20">
-        <v>1.614859141052426</v>
+        <v>103.9956639086413</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>25.87127450378845</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>69.70370091771449</v>
+        <v>47.15561638834429</v>
       </c>
       <c r="N20">
-        <v>12.1181165877669</v>
+        <v>20.139282983723</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.105902691508721</v>
+        <v>10.50879634691964</v>
       </c>
       <c r="D21">
-        <v>27.68270139764843</v>
+        <v>8.01990926050058</v>
       </c>
       <c r="E21">
-        <v>22.38959906208032</v>
+        <v>10.09823900991257</v>
       </c>
       <c r="F21">
-        <v>125.8325905844505</v>
+        <v>69.89740734505642</v>
       </c>
       <c r="G21">
-        <v>1.614859141052426</v>
+        <v>112.8264868719199</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>28.06601390696569</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>69.70370091771449</v>
+        <v>50.54014005142973</v>
       </c>
       <c r="N21">
-        <v>12.1181165877669</v>
+        <v>21.002156436964</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.105902691508721</v>
+        <v>11.02471740766745</v>
       </c>
       <c r="D22">
-        <v>27.68270139764843</v>
+        <v>8.464258627615209</v>
       </c>
       <c r="E22">
-        <v>22.38959906208032</v>
+        <v>10.25108135985715</v>
       </c>
       <c r="F22">
-        <v>125.8325905844505</v>
+        <v>73.52132384473019</v>
       </c>
       <c r="G22">
-        <v>1.614859141052426</v>
+        <v>118.7153362244144</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>29.53029880258559</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>69.70370091771449</v>
+        <v>52.74300865054479</v>
       </c>
       <c r="N22">
-        <v>12.1181165877669</v>
+        <v>21.55283509628998</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.105902691508721</v>
+        <v>10.74842761444029</v>
       </c>
       <c r="D23">
-        <v>27.68270139764843</v>
+        <v>8.225373742789802</v>
       </c>
       <c r="E23">
-        <v>22.38959906208032</v>
+        <v>10.17111568264578</v>
       </c>
       <c r="F23">
-        <v>125.8325905844505</v>
+        <v>71.57797258501462</v>
       </c>
       <c r="G23">
-        <v>1.614859141052426</v>
+        <v>115.5568860891082</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>28.74487296265898</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>69.70370091771449</v>
+        <v>51.5668969907405</v>
       </c>
       <c r="N23">
-        <v>12.1181165877669</v>
+        <v>21.26016171173161</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.105902691508721</v>
+        <v>9.716005429849272</v>
       </c>
       <c r="D24">
-        <v>27.68270139764843</v>
+        <v>7.350983536915333</v>
       </c>
       <c r="E24">
-        <v>22.38959906208032</v>
+        <v>9.83578879329184</v>
       </c>
       <c r="F24">
-        <v>125.8325905844505</v>
+        <v>64.37025669607418</v>
       </c>
       <c r="G24">
-        <v>1.614859141052426</v>
+        <v>103.8524022170017</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>25.83568146490561</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>69.70370091771449</v>
+        <v>47.09990631320024</v>
       </c>
       <c r="N24">
-        <v>12.1181165877669</v>
+        <v>20.12496134368437</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.105902691508721</v>
+        <v>8.60004421703337</v>
       </c>
       <c r="D25">
-        <v>27.68270139764843</v>
+        <v>6.435361868900578</v>
       </c>
       <c r="E25">
-        <v>22.38959906208032</v>
+        <v>9.420186562346414</v>
       </c>
       <c r="F25">
-        <v>125.8325905844505</v>
+        <v>56.67716537697957</v>
       </c>
       <c r="G25">
-        <v>1.614859141052426</v>
+        <v>91.3747645303887</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>22.73742853327858</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.65017638077576</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>69.70370091771449</v>
+        <v>42.14873761916602</v>
       </c>
       <c r="N25">
-        <v>12.1181165877669</v>
+        <v>18.84639006518292</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.754570565207351</v>
+        <v>4.924741707968425</v>
       </c>
       <c r="D2">
-        <v>5.760021933443719</v>
+        <v>4.522883239565808</v>
       </c>
       <c r="E2">
-        <v>9.080101044471707</v>
+        <v>9.427305210633097</v>
       </c>
       <c r="F2">
-        <v>50.92046294784256</v>
+        <v>32.78506309923144</v>
       </c>
       <c r="G2">
-        <v>82.04606876174981</v>
+        <v>47.70859717596404</v>
       </c>
       <c r="H2">
-        <v>20.42395245979107</v>
+        <v>16.19504843632827</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.31737486657379</v>
+        <v>23.63142822161213</v>
       </c>
       <c r="N2">
-        <v>17.86272768354581</v>
+        <v>16.70351180470752</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.159327511984527</v>
+        <v>4.749893571430197</v>
       </c>
       <c r="D3">
-        <v>5.293285201327239</v>
+        <v>4.472065699592989</v>
       </c>
       <c r="E3">
-        <v>8.833608147051375</v>
+        <v>9.359589629406411</v>
       </c>
       <c r="F3">
-        <v>46.9080924883967</v>
+        <v>31.65327972735108</v>
       </c>
       <c r="G3">
-        <v>75.54729927437991</v>
+        <v>45.45912431382495</v>
       </c>
       <c r="H3">
-        <v>18.81425726142787</v>
+        <v>15.91597916326749</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.58057758189677</v>
+        <v>22.61520260742766</v>
       </c>
       <c r="N3">
-        <v>17.17275831276573</v>
+        <v>16.48521143422583</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.781008382981324</v>
+        <v>4.641213922249149</v>
       </c>
       <c r="D4">
-        <v>5.000184677723848</v>
+        <v>4.442890097197288</v>
       </c>
       <c r="E4">
-        <v>8.675994100660814</v>
+        <v>9.319394675614801</v>
       </c>
       <c r="F4">
-        <v>44.37704571113292</v>
+        <v>30.95320123860136</v>
       </c>
       <c r="G4">
-        <v>71.44883891630636</v>
+        <v>44.04277661481686</v>
       </c>
       <c r="H4">
-        <v>17.80015628269318</v>
+        <v>15.74919324837453</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>33.82491715939867</v>
+        <v>21.9712839003748</v>
       </c>
       <c r="N4">
-        <v>16.73890113326895</v>
+        <v>16.35192556931985</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.623379888880381</v>
+        <v>4.596670915058227</v>
       </c>
       <c r="D5">
-        <v>4.878849147345514</v>
+        <v>4.43151924372188</v>
       </c>
       <c r="E5">
-        <v>8.610429545550957</v>
+        <v>9.30338430182846</v>
       </c>
       <c r="F5">
-        <v>43.32718002356412</v>
+        <v>30.66713030263638</v>
       </c>
       <c r="G5">
-        <v>69.74899567992865</v>
+        <v>43.45772173858139</v>
       </c>
       <c r="H5">
-        <v>17.37983711145557</v>
+        <v>15.68246181679581</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>33.0897920481039</v>
+        <v>21.7042363708297</v>
       </c>
       <c r="N5">
-        <v>16.55976065374649</v>
+        <v>16.29786064558926</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.596990622636975</v>
+        <v>4.58926154639036</v>
       </c>
       <c r="D6">
-        <v>4.858580315910691</v>
+        <v>4.429662662713857</v>
       </c>
       <c r="E6">
-        <v>8.599468938253253</v>
+        <v>9.300748726794488</v>
       </c>
       <c r="F6">
-        <v>43.15169924687844</v>
+        <v>30.61959681932184</v>
       </c>
       <c r="G6">
-        <v>69.46488215490619</v>
+        <v>43.36012835862014</v>
       </c>
       <c r="H6">
-        <v>17.30960198392854</v>
+        <v>15.67145821516002</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>32.96651649178147</v>
+        <v>21.65962457085954</v>
       </c>
       <c r="N6">
-        <v>16.5298804247496</v>
+        <v>16.28890010441759</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.778896844283297</v>
+        <v>4.640614126307558</v>
       </c>
       <c r="D7">
-        <v>4.998556284611713</v>
+        <v>4.442734636190197</v>
       </c>
       <c r="E7">
-        <v>8.675114965328422</v>
+        <v>9.319177230116352</v>
       </c>
       <c r="F7">
-        <v>44.36296326701245</v>
+        <v>30.94934565298077</v>
       </c>
       <c r="G7">
-        <v>71.42603734633536</v>
+        <v>44.03491691006859</v>
       </c>
       <c r="H7">
-        <v>17.79451700127336</v>
+        <v>15.74828817020069</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>33.81508360468977</v>
+        <v>21.96770068658636</v>
       </c>
       <c r="N7">
-        <v>16.7364943339879</v>
+        <v>16.35119533708602</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.5518441733783</v>
+        <v>4.864772999592326</v>
       </c>
       <c r="D8">
-        <v>5.600278485598648</v>
+        <v>4.504946507369328</v>
       </c>
       <c r="E8">
-        <v>8.996556022339865</v>
+        <v>9.403683073650958</v>
       </c>
       <c r="F8">
-        <v>49.54999369034056</v>
+        <v>32.39619242340822</v>
       </c>
       <c r="G8">
-        <v>79.82608260879562</v>
+        <v>46.94081396194422</v>
       </c>
       <c r="H8">
-        <v>19.87387158464544</v>
+        <v>16.0979315394264</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>37.3888541170111</v>
+        <v>23.28538300156355</v>
       </c>
       <c r="N8">
-        <v>17.62707351392725</v>
+        <v>16.62812252781465</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.978471693744151</v>
+        <v>5.290774549612983</v>
       </c>
       <c r="D9">
-        <v>6.742635002017614</v>
+        <v>4.642563247068112</v>
       </c>
       <c r="E9">
-        <v>9.566220603470125</v>
+        <v>9.579393146678646</v>
       </c>
       <c r="F9">
-        <v>59.27423957939344</v>
+        <v>35.17179385879285</v>
       </c>
       <c r="G9">
-        <v>95.58548222122307</v>
+        <v>52.32433693321408</v>
       </c>
       <c r="H9">
-        <v>23.78254122261207</v>
+        <v>16.81582976004993</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>43.84153231398319</v>
+        <v>25.69706023233983</v>
       </c>
       <c r="N9">
-        <v>19.28397981659176</v>
+        <v>17.17446715302819</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.995089177592241</v>
+        <v>5.591807441768802</v>
       </c>
       <c r="D10">
-        <v>7.584622635928476</v>
+        <v>4.752486609760331</v>
       </c>
       <c r="E10">
-        <v>9.931709761654036</v>
+        <v>9.713245784641771</v>
       </c>
       <c r="F10">
-        <v>66.31019586700874</v>
+        <v>37.1484550010579</v>
       </c>
       <c r="G10">
-        <v>107.0011825958458</v>
+        <v>56.0474601661676</v>
       </c>
       <c r="H10">
-        <v>26.61808167198965</v>
+        <v>17.35755308749641</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>48.31845263802077</v>
+        <v>27.34813918444793</v>
       </c>
       <c r="N10">
-        <v>20.43748962498255</v>
+        <v>17.5743461363387</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.45800947929447</v>
+        <v>5.725510448221045</v>
       </c>
       <c r="D11">
-        <v>7.976564576941933</v>
+        <v>4.804236330418847</v>
       </c>
       <c r="E11">
-        <v>10.08238843878977</v>
+        <v>9.774884180233485</v>
       </c>
       <c r="F11">
-        <v>69.54182175031892</v>
+        <v>38.02962475540119</v>
       </c>
       <c r="G11">
-        <v>112.2488803603606</v>
+        <v>57.6843245950461</v>
       </c>
       <c r="H11">
-        <v>27.92241879091372</v>
+        <v>17.60596565598748</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>50.32174080009073</v>
+        <v>28.07045869709336</v>
       </c>
       <c r="N11">
-        <v>20.94700916976611</v>
+        <v>17.75520627501886</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.63424122363478</v>
+        <v>5.775628634910023</v>
       </c>
       <c r="D12">
-        <v>8.127271540700825</v>
+        <v>4.824068045507966</v>
       </c>
       <c r="E12">
-        <v>10.13678744225564</v>
+        <v>9.798308493813479</v>
       </c>
       <c r="F12">
-        <v>70.77659637782349</v>
+        <v>38.36038907455616</v>
       </c>
       <c r="G12">
-        <v>114.254789126106</v>
+        <v>58.29556836148655</v>
       </c>
       <c r="H12">
-        <v>28.42111810902313</v>
+        <v>17.70022560498526</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>51.07840873499765</v>
+        <v>28.33967413577568</v>
       </c>
       <c r="N12">
-        <v>21.13768202071615</v>
+        <v>17.82348433417746</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.59622785809419</v>
+        <v>5.764858250103676</v>
       </c>
       <c r="D13">
-        <v>8.094692390634759</v>
+        <v>4.819786724619754</v>
       </c>
       <c r="E13">
-        <v>10.12519764161787</v>
+        <v>9.793260335851983</v>
       </c>
       <c r="F13">
-        <v>70.51004431377039</v>
+        <v>38.2892874876122</v>
       </c>
       <c r="G13">
-        <v>113.8217323203568</v>
+        <v>58.16431474421839</v>
       </c>
       <c r="H13">
-        <v>28.3134482043926</v>
+        <v>17.67991797340099</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>50.91547630164166</v>
+        <v>28.2818880118328</v>
       </c>
       <c r="N13">
-        <v>21.09671927456166</v>
+        <v>17.80878968271274</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.47248338693239</v>
+        <v>5.729644214224194</v>
       </c>
       <c r="D14">
-        <v>7.988910432988544</v>
+        <v>4.805863275115473</v>
       </c>
       <c r="E14">
-        <v>10.08691992051368</v>
+        <v>9.776809784634859</v>
       </c>
       <c r="F14">
-        <v>69.64314018749484</v>
+        <v>38.05689708823243</v>
       </c>
       <c r="G14">
-        <v>112.4134562491589</v>
+        <v>57.73478658998981</v>
       </c>
       <c r="H14">
-        <v>27.96333241274078</v>
+        <v>17.61371716407389</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>50.38401113330049</v>
+        <v>28.09269452138248</v>
       </c>
       <c r="N14">
-        <v>20.96274184290927</v>
+        <v>17.76082808783361</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.39683885388109</v>
+        <v>5.708006606676316</v>
       </c>
       <c r="D15">
-        <v>7.924449722108634</v>
+        <v>4.797364918068394</v>
       </c>
       <c r="E15">
-        <v>10.06311331339776</v>
+        <v>9.766743458963473</v>
       </c>
       <c r="F15">
-        <v>69.1138078090474</v>
+        <v>37.91416260011648</v>
       </c>
       <c r="G15">
-        <v>111.5536727053566</v>
+        <v>57.47055645768854</v>
       </c>
       <c r="H15">
-        <v>27.74959484489656</v>
+        <v>17.57318947991366</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>50.05832315290429</v>
+        <v>27.97624187221477</v>
       </c>
       <c r="N15">
-        <v>20.88037899550442</v>
+        <v>17.73142118689663</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.964913190417489</v>
+        <v>5.583000360205674</v>
       </c>
       <c r="D16">
-        <v>7.559265944017836</v>
+        <v>4.749138426709154</v>
       </c>
       <c r="E16">
-        <v>9.921515162391874</v>
+        <v>9.709230537783894</v>
       </c>
       <c r="F16">
-        <v>66.10013620411301</v>
+        <v>37.09047726598624</v>
       </c>
       <c r="G16">
-        <v>106.660178304031</v>
+        <v>55.93930547806222</v>
       </c>
       <c r="H16">
-        <v>26.53334068321502</v>
+        <v>17.34135054994458</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>48.18708580540297</v>
+        <v>27.30033948509873</v>
       </c>
       <c r="N16">
-        <v>20.40387744828994</v>
+        <v>17.56250032929849</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.700590158143225</v>
+        <v>5.505448690892701</v>
       </c>
       <c r="D17">
-        <v>7.338134913287457</v>
+        <v>4.719988970218219</v>
       </c>
       <c r="E17">
-        <v>9.830386143215152</v>
+        <v>9.674122459384979</v>
       </c>
       <c r="F17">
-        <v>64.2632874228391</v>
+        <v>36.58031432449487</v>
       </c>
       <c r="G17">
-        <v>103.6788061123807</v>
+        <v>54.98505180844785</v>
       </c>
       <c r="H17">
-        <v>25.79255246660761</v>
+        <v>17.1995647819276</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>47.03236569544412</v>
+        <v>26.87819436706241</v>
       </c>
       <c r="N17">
-        <v>20.10759458554647</v>
+        <v>17.45856199091901</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.548536198224598</v>
+        <v>5.460540618626617</v>
       </c>
       <c r="D18">
-        <v>7.211709653767643</v>
+        <v>4.703388204986362</v>
       </c>
       <c r="E18">
-        <v>9.776533378467672</v>
+        <v>9.654001097752769</v>
       </c>
       <c r="F18">
-        <v>63.20919467818143</v>
+        <v>36.28520254444883</v>
       </c>
       <c r="G18">
-        <v>101.9683212020709</v>
+        <v>54.43086455453934</v>
       </c>
       <c r="H18">
-        <v>25.36762505369223</v>
+        <v>17.11820513962563</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>46.36485372606051</v>
+        <v>26.63268873500008</v>
       </c>
       <c r="N18">
-        <v>19.93575146150557</v>
+        <v>17.39868430231884</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.497027492788471</v>
+        <v>5.445285092099325</v>
       </c>
       <c r="D19">
-        <v>7.169010041317795</v>
+        <v>4.697796319941166</v>
       </c>
       <c r="E19">
-        <v>9.758064205709132</v>
+        <v>9.647201440098534</v>
       </c>
       <c r="F19">
-        <v>62.85254574255426</v>
+        <v>36.18500479032872</v>
       </c>
       <c r="G19">
-        <v>101.3896487830307</v>
+        <v>54.24232599305835</v>
       </c>
       <c r="H19">
-        <v>25.2238822255456</v>
+        <v>17.09069398718681</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>46.13819845846882</v>
+        <v>26.54910700143491</v>
       </c>
       <c r="N19">
-        <v>19.87732582641354</v>
+        <v>17.3783962476201</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.728724720716741</v>
+        <v>5.513735851522619</v>
       </c>
       <c r="D20">
-        <v>7.361589470618732</v>
+        <v>4.723074991059339</v>
       </c>
       <c r="E20">
-        <v>9.840238539878479</v>
+        <v>9.677852512375663</v>
       </c>
       <c r="F20">
-        <v>64.45853261742776</v>
+        <v>36.63479833306472</v>
       </c>
       <c r="G20">
-        <v>103.9956639086413</v>
+        <v>55.08718831164365</v>
       </c>
       <c r="H20">
-        <v>25.87127450378845</v>
+        <v>17.21463895472085</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>47.15561638834429</v>
+        <v>26.92341312083276</v>
       </c>
       <c r="N20">
-        <v>20.139282983723</v>
+        <v>17.46963668276253</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.50879634691964</v>
+        <v>5.740001675242061</v>
       </c>
       <c r="D21">
-        <v>8.01990926050058</v>
+        <v>4.809946673569562</v>
       </c>
       <c r="E21">
-        <v>10.09823900991257</v>
+        <v>9.781639646301358</v>
       </c>
       <c r="F21">
-        <v>69.89740734505642</v>
+        <v>38.12523730338219</v>
       </c>
       <c r="G21">
-        <v>112.8264868719199</v>
+        <v>57.86118594507962</v>
       </c>
       <c r="H21">
-        <v>28.06601390696569</v>
+        <v>17.6331574772443</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>50.54014005142973</v>
+        <v>28.14838349949619</v>
       </c>
       <c r="N21">
-        <v>21.002156436964</v>
+        <v>17.77492172543205</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.02471740766745</v>
+        <v>5.88487606510522</v>
       </c>
       <c r="D22">
-        <v>8.464258627615209</v>
+        <v>4.868085793636958</v>
       </c>
       <c r="E22">
-        <v>10.25108135985715</v>
+        <v>9.849944229646907</v>
       </c>
       <c r="F22">
-        <v>73.52132384473019</v>
+        <v>39.08220716125638</v>
       </c>
       <c r="G22">
-        <v>118.7153362244144</v>
+        <v>59.6238679091458</v>
       </c>
       <c r="H22">
-        <v>29.53029880258559</v>
+        <v>17.90775875182701</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>52.74300865054479</v>
+        <v>28.92378073522909</v>
       </c>
       <c r="N22">
-        <v>21.55283509628998</v>
+        <v>17.97319455027925</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.74842761444029</v>
+        <v>5.807842625392327</v>
       </c>
       <c r="D23">
-        <v>8.225373742789802</v>
+        <v>4.836936400139169</v>
       </c>
       <c r="E23">
-        <v>10.17111568264578</v>
+        <v>9.813453467672071</v>
       </c>
       <c r="F23">
-        <v>71.57797258501462</v>
+        <v>38.57311802848824</v>
       </c>
       <c r="G23">
-        <v>115.5568860891082</v>
+        <v>58.68781708321501</v>
       </c>
       <c r="H23">
-        <v>28.74487296265898</v>
+        <v>17.76113049063084</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>51.5668969907405</v>
+        <v>28.51229246160891</v>
       </c>
       <c r="N23">
-        <v>21.26016171173161</v>
+        <v>17.86750589626934</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.716005429849272</v>
+        <v>5.509990227385981</v>
       </c>
       <c r="D24">
-        <v>7.350983536915333</v>
+        <v>4.721679308819794</v>
       </c>
       <c r="E24">
-        <v>9.83578879329184</v>
+        <v>9.676165958145976</v>
       </c>
       <c r="F24">
-        <v>64.37025669607418</v>
+        <v>36.6101717327528</v>
       </c>
       <c r="G24">
-        <v>103.8524022170017</v>
+        <v>55.04102972702592</v>
       </c>
       <c r="H24">
-        <v>25.83568146490561</v>
+        <v>17.20782343166588</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>47.09990631320024</v>
+        <v>26.90297845741125</v>
       </c>
       <c r="N24">
-        <v>20.12496134368437</v>
+        <v>17.46463019054724</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.60004421703337</v>
+        <v>5.177387271956397</v>
       </c>
       <c r="D25">
-        <v>6.435361868900578</v>
+        <v>4.603730516096646</v>
       </c>
       <c r="E25">
-        <v>9.420186562346414</v>
+        <v>9.530925801342786</v>
       </c>
       <c r="F25">
-        <v>56.67716537697957</v>
+        <v>34.4302559039676</v>
       </c>
       <c r="G25">
-        <v>91.3747645303887</v>
+        <v>50.90621974918423</v>
       </c>
       <c r="H25">
-        <v>22.73742853327858</v>
+        <v>16.61872161205481</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>42.14873761916602</v>
+        <v>25.06486081643276</v>
       </c>
       <c r="N25">
-        <v>18.84639006518292</v>
+        <v>17.02668227744613</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.924741707968425</v>
+        <v>7.754570565207422</v>
       </c>
       <c r="D2">
-        <v>4.522883239565808</v>
+        <v>5.760021933443718</v>
       </c>
       <c r="E2">
-        <v>9.427305210633097</v>
+        <v>9.080101044471835</v>
       </c>
       <c r="F2">
-        <v>32.78506309923144</v>
+        <v>50.92046294784274</v>
       </c>
       <c r="G2">
-        <v>47.70859717596404</v>
+        <v>82.04606876175001</v>
       </c>
       <c r="H2">
-        <v>16.19504843632827</v>
+        <v>20.42395245979113</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.63142822161213</v>
+        <v>38.31737486657385</v>
       </c>
       <c r="N2">
-        <v>16.70351180470752</v>
+        <v>17.86272768354581</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749893571430197</v>
+        <v>7.159327511984488</v>
       </c>
       <c r="D3">
-        <v>4.472065699592989</v>
+        <v>5.293285201327196</v>
       </c>
       <c r="E3">
-        <v>9.359589629406411</v>
+        <v>8.83360814705148</v>
       </c>
       <c r="F3">
-        <v>31.65327972735108</v>
+        <v>46.9080924883968</v>
       </c>
       <c r="G3">
-        <v>45.45912431382495</v>
+        <v>75.54729927438011</v>
       </c>
       <c r="H3">
-        <v>15.91597916326749</v>
+        <v>18.81425726142788</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22.61520260742766</v>
+        <v>35.58057758189681</v>
       </c>
       <c r="N3">
-        <v>16.48521143422583</v>
+        <v>17.17275831276573</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.641213922249149</v>
+        <v>6.781008382981307</v>
       </c>
       <c r="D4">
-        <v>4.442890097197288</v>
+        <v>5.000184677723809</v>
       </c>
       <c r="E4">
-        <v>9.319394675614801</v>
+        <v>8.675994100660962</v>
       </c>
       <c r="F4">
-        <v>30.95320123860136</v>
+        <v>44.37704571113309</v>
       </c>
       <c r="G4">
-        <v>44.04277661481686</v>
+        <v>71.4488389163066</v>
       </c>
       <c r="H4">
-        <v>15.74919324837453</v>
+        <v>17.80015628269326</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.9712839003748</v>
+        <v>33.82491715939873</v>
       </c>
       <c r="N4">
-        <v>16.35192556931985</v>
+        <v>16.73890113326893</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.596670915058227</v>
+        <v>6.623379888880479</v>
       </c>
       <c r="D5">
-        <v>4.43151924372188</v>
+        <v>4.87884914734552</v>
       </c>
       <c r="E5">
-        <v>9.30338430182846</v>
+        <v>8.610429545551005</v>
       </c>
       <c r="F5">
-        <v>30.66713030263638</v>
+        <v>43.32718002356428</v>
       </c>
       <c r="G5">
-        <v>43.45772173858139</v>
+        <v>69.74899567992894</v>
       </c>
       <c r="H5">
-        <v>15.68246181679581</v>
+        <v>17.37983711145565</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.7042363708297</v>
+        <v>33.089792048104</v>
       </c>
       <c r="N5">
-        <v>16.29786064558926</v>
+        <v>16.55976065374649</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.58926154639036</v>
+        <v>6.596990622637044</v>
       </c>
       <c r="D6">
-        <v>4.429662662713857</v>
+        <v>4.858580315910507</v>
       </c>
       <c r="E6">
-        <v>9.300748726794488</v>
+        <v>8.599468938253153</v>
       </c>
       <c r="F6">
-        <v>30.61959681932184</v>
+        <v>43.15169924687836</v>
       </c>
       <c r="G6">
-        <v>43.36012835862014</v>
+        <v>69.46488215490606</v>
       </c>
       <c r="H6">
-        <v>15.67145821516002</v>
+        <v>17.3096019839285</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.65962457085954</v>
+        <v>32.96651649178139</v>
       </c>
       <c r="N6">
-        <v>16.28890010441759</v>
+        <v>16.52988042474959</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.640614126307558</v>
+        <v>6.778896844283265</v>
       </c>
       <c r="D7">
-        <v>4.442734636190197</v>
+        <v>4.998556284611698</v>
       </c>
       <c r="E7">
-        <v>9.319177230116352</v>
+        <v>8.675114965328397</v>
       </c>
       <c r="F7">
-        <v>30.94934565298077</v>
+        <v>44.36296326701248</v>
       </c>
       <c r="G7">
-        <v>44.03491691006859</v>
+        <v>71.42603734633541</v>
       </c>
       <c r="H7">
-        <v>15.74828817020069</v>
+        <v>17.79451700127336</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.96770068658636</v>
+        <v>33.8150836046898</v>
       </c>
       <c r="N7">
-        <v>16.35119533708602</v>
+        <v>16.7364943339879</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.864772999592326</v>
+        <v>7.5518441733783</v>
       </c>
       <c r="D8">
-        <v>4.504946507369328</v>
+        <v>5.600278485598685</v>
       </c>
       <c r="E8">
-        <v>9.403683073650958</v>
+        <v>8.99655602233997</v>
       </c>
       <c r="F8">
-        <v>32.39619242340822</v>
+        <v>49.54999369034074</v>
       </c>
       <c r="G8">
-        <v>46.94081396194422</v>
+        <v>79.82608260879593</v>
       </c>
       <c r="H8">
-        <v>16.0979315394264</v>
+        <v>19.8738715846455</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.28538300156355</v>
+        <v>37.38885411701119</v>
       </c>
       <c r="N8">
-        <v>16.62812252781465</v>
+        <v>17.62707351392724</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.290774549612983</v>
+        <v>8.978471693744103</v>
       </c>
       <c r="D9">
-        <v>4.642563247068112</v>
+        <v>6.742635002017713</v>
       </c>
       <c r="E9">
-        <v>9.579393146678646</v>
+        <v>9.566220603470109</v>
       </c>
       <c r="F9">
-        <v>35.17179385879285</v>
+        <v>59.27423957939341</v>
       </c>
       <c r="G9">
-        <v>52.32433693321408</v>
+        <v>95.58548222122309</v>
       </c>
       <c r="H9">
-        <v>16.81582976004993</v>
+        <v>23.78254122261206</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>25.69706023233983</v>
+        <v>43.8415323139832</v>
       </c>
       <c r="N9">
-        <v>17.17446715302819</v>
+        <v>19.28397981659176</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.591807441768802</v>
+        <v>9.99508917759235</v>
       </c>
       <c r="D10">
-        <v>4.752486609760331</v>
+        <v>7.584622635928417</v>
       </c>
       <c r="E10">
-        <v>9.713245784641771</v>
+        <v>9.931709761654004</v>
       </c>
       <c r="F10">
-        <v>37.1484550010579</v>
+        <v>66.31019586700884</v>
       </c>
       <c r="G10">
-        <v>56.0474601661676</v>
+        <v>107.0011825958459</v>
       </c>
       <c r="H10">
-        <v>17.35755308749641</v>
+        <v>26.61808167198966</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>27.34813918444793</v>
+        <v>48.31845263802083</v>
       </c>
       <c r="N10">
-        <v>17.5743461363387</v>
+        <v>20.43748962498257</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.725510448221045</v>
+        <v>10.45800947929453</v>
       </c>
       <c r="D11">
-        <v>4.804236330418847</v>
+        <v>7.97656457694216</v>
       </c>
       <c r="E11">
-        <v>9.774884180233485</v>
+        <v>10.0823884387899</v>
       </c>
       <c r="F11">
-        <v>38.02962475540119</v>
+        <v>69.54182175031914</v>
       </c>
       <c r="G11">
-        <v>57.6843245950461</v>
+        <v>112.2488803603612</v>
       </c>
       <c r="H11">
-        <v>17.60596565598748</v>
+        <v>27.92241879091377</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>28.07045869709336</v>
+        <v>50.32174080009083</v>
       </c>
       <c r="N11">
-        <v>17.75520627501886</v>
+        <v>20.94700916976611</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.775628634910023</v>
+        <v>10.63424122363474</v>
       </c>
       <c r="D12">
-        <v>4.824068045507966</v>
+        <v>8.127271540700832</v>
       </c>
       <c r="E12">
-        <v>9.798308493813479</v>
+        <v>10.13678744225566</v>
       </c>
       <c r="F12">
-        <v>38.36038907455616</v>
+        <v>70.77659637782368</v>
       </c>
       <c r="G12">
-        <v>58.29556836148655</v>
+        <v>114.2547891261062</v>
       </c>
       <c r="H12">
-        <v>17.70022560498526</v>
+        <v>28.42111810902321</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>28.33967413577568</v>
+        <v>51.07840873499776</v>
       </c>
       <c r="N12">
-        <v>17.82348433417746</v>
+        <v>21.13768202071615</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.764858250103676</v>
+        <v>10.59622785809414</v>
       </c>
       <c r="D13">
-        <v>4.819786724619754</v>
+        <v>8.09469239063467</v>
       </c>
       <c r="E13">
-        <v>9.793260335851983</v>
+        <v>10.12519764161786</v>
       </c>
       <c r="F13">
-        <v>38.2892874876122</v>
+        <v>70.51004431377017</v>
       </c>
       <c r="G13">
-        <v>58.16431474421839</v>
+        <v>113.8217323203565</v>
       </c>
       <c r="H13">
-        <v>17.67991797340099</v>
+        <v>28.31344820439246</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>28.2818880118328</v>
+        <v>50.91547630164155</v>
       </c>
       <c r="N13">
-        <v>17.80878968271274</v>
+        <v>21.09671927456167</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.729644214224194</v>
+        <v>10.47248338693234</v>
       </c>
       <c r="D14">
-        <v>4.805863275115473</v>
+        <v>7.988910432988431</v>
       </c>
       <c r="E14">
-        <v>9.776809784634859</v>
+        <v>10.08691992051357</v>
       </c>
       <c r="F14">
-        <v>38.05689708823243</v>
+        <v>69.64314018749445</v>
       </c>
       <c r="G14">
-        <v>57.73478658998981</v>
+        <v>112.4134562491581</v>
       </c>
       <c r="H14">
-        <v>17.61371716407389</v>
+        <v>27.96333241274065</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>28.09269452138248</v>
+        <v>50.38401113330034</v>
       </c>
       <c r="N14">
-        <v>17.76082808783361</v>
+        <v>20.96274184290926</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.708006606676316</v>
+        <v>10.39683885388125</v>
       </c>
       <c r="D15">
-        <v>4.797364918068394</v>
+        <v>7.924449722108534</v>
       </c>
       <c r="E15">
-        <v>9.766743458963473</v>
+        <v>10.06311331339773</v>
       </c>
       <c r="F15">
-        <v>37.91416260011648</v>
+        <v>69.11380780904733</v>
       </c>
       <c r="G15">
-        <v>57.47055645768854</v>
+        <v>111.5536727053565</v>
       </c>
       <c r="H15">
-        <v>17.57318947991366</v>
+        <v>27.74959484489652</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.97624187221477</v>
+        <v>50.05832315290424</v>
       </c>
       <c r="N15">
-        <v>17.73142118689663</v>
+        <v>20.88037899550442</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.583000360205674</v>
+        <v>9.964913190417564</v>
       </c>
       <c r="D16">
-        <v>4.749138426709154</v>
+        <v>7.559265944017928</v>
       </c>
       <c r="E16">
-        <v>9.709230537783894</v>
+        <v>9.921515162391978</v>
       </c>
       <c r="F16">
-        <v>37.09047726598624</v>
+        <v>66.10013620411344</v>
       </c>
       <c r="G16">
-        <v>55.93930547806222</v>
+        <v>106.6601783040318</v>
       </c>
       <c r="H16">
-        <v>17.34135054994458</v>
+        <v>26.53334068321516</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>27.30033948509873</v>
+        <v>48.18708580540313</v>
       </c>
       <c r="N16">
-        <v>17.56250032929849</v>
+        <v>20.40387744828994</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.505448690892701</v>
+        <v>9.700590158143337</v>
       </c>
       <c r="D17">
-        <v>4.719988970218219</v>
+        <v>7.338134913287547</v>
       </c>
       <c r="E17">
-        <v>9.674122459384979</v>
+        <v>9.830386143215229</v>
       </c>
       <c r="F17">
-        <v>36.58031432449487</v>
+        <v>64.26328742283897</v>
       </c>
       <c r="G17">
-        <v>54.98505180844785</v>
+        <v>103.6788061123806</v>
       </c>
       <c r="H17">
-        <v>17.1995647819276</v>
+        <v>25.79255246660757</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>26.87819436706241</v>
+        <v>47.03236569544404</v>
       </c>
       <c r="N17">
-        <v>17.45856199091901</v>
+        <v>20.10759458554646</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.460540618626617</v>
+        <v>9.54853619822469</v>
       </c>
       <c r="D18">
-        <v>4.703388204986362</v>
+        <v>7.211709653767763</v>
       </c>
       <c r="E18">
-        <v>9.654001097752769</v>
+        <v>9.776533378467816</v>
       </c>
       <c r="F18">
-        <v>36.28520254444883</v>
+        <v>63.20919467818167</v>
       </c>
       <c r="G18">
-        <v>54.43086455453934</v>
+        <v>101.9683212020714</v>
       </c>
       <c r="H18">
-        <v>17.11820513962563</v>
+        <v>25.36762505369235</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>26.63268873500008</v>
+        <v>46.36485372606057</v>
       </c>
       <c r="N18">
-        <v>17.39868430231884</v>
+        <v>19.93575146150554</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.445285092099325</v>
+        <v>9.497027492788563</v>
       </c>
       <c r="D19">
-        <v>4.697796319941166</v>
+        <v>7.169010041317921</v>
       </c>
       <c r="E19">
-        <v>9.647201440098534</v>
+        <v>9.758064205709202</v>
       </c>
       <c r="F19">
-        <v>36.18500479032872</v>
+        <v>62.85254574255448</v>
       </c>
       <c r="G19">
-        <v>54.24232599305835</v>
+        <v>101.389648783031</v>
       </c>
       <c r="H19">
-        <v>17.09069398718681</v>
+        <v>25.22388222554579</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>26.54910700143491</v>
+        <v>46.13819845846894</v>
       </c>
       <c r="N19">
-        <v>17.3783962476201</v>
+        <v>19.87732582641353</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.513735851522619</v>
+        <v>9.728724720716841</v>
       </c>
       <c r="D20">
-        <v>4.723074991059339</v>
+        <v>7.36158947061864</v>
       </c>
       <c r="E20">
-        <v>9.677852512375663</v>
+        <v>9.840238539878419</v>
       </c>
       <c r="F20">
-        <v>36.63479833306472</v>
+        <v>64.45853261742782</v>
       </c>
       <c r="G20">
-        <v>55.08718831164365</v>
+        <v>103.9956639086413</v>
       </c>
       <c r="H20">
-        <v>17.21463895472085</v>
+        <v>25.87127450378846</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>26.92341312083276</v>
+        <v>47.15561638834433</v>
       </c>
       <c r="N20">
-        <v>17.46963668276253</v>
+        <v>20.13928298372301</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.740001675242061</v>
+        <v>10.50879634691978</v>
       </c>
       <c r="D21">
-        <v>4.809946673569562</v>
+        <v>8.019909260500551</v>
       </c>
       <c r="E21">
-        <v>9.781639646301358</v>
+        <v>10.09823900991257</v>
       </c>
       <c r="F21">
-        <v>38.12523730338219</v>
+        <v>69.89740734505652</v>
       </c>
       <c r="G21">
-        <v>57.86118594507962</v>
+        <v>112.8264868719201</v>
       </c>
       <c r="H21">
-        <v>17.6331574772443</v>
+        <v>28.06601390696569</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>28.14838349949619</v>
+        <v>50.54014005142978</v>
       </c>
       <c r="N21">
-        <v>17.77492172543205</v>
+        <v>21.002156436964</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.88487606510522</v>
+        <v>11.02471740766744</v>
       </c>
       <c r="D22">
-        <v>4.868085793636958</v>
+        <v>8.464258627615157</v>
       </c>
       <c r="E22">
-        <v>9.849944229646907</v>
+        <v>10.25108135985715</v>
       </c>
       <c r="F22">
-        <v>39.08220716125638</v>
+        <v>73.52132384473006</v>
       </c>
       <c r="G22">
-        <v>59.6238679091458</v>
+        <v>118.7153362244141</v>
       </c>
       <c r="H22">
-        <v>17.90775875182701</v>
+        <v>29.53029880258552</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>28.92378073522909</v>
+        <v>52.74300865054472</v>
       </c>
       <c r="N22">
-        <v>17.97319455027925</v>
+        <v>21.55283509628998</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.807842625392327</v>
+        <v>10.74842761444041</v>
       </c>
       <c r="D23">
-        <v>4.836936400139169</v>
+        <v>8.225373742789939</v>
       </c>
       <c r="E23">
-        <v>9.813453467672071</v>
+        <v>10.17111568264573</v>
       </c>
       <c r="F23">
-        <v>38.57311802848824</v>
+        <v>71.57797258501489</v>
       </c>
       <c r="G23">
-        <v>58.68781708321501</v>
+        <v>115.5568860891087</v>
       </c>
       <c r="H23">
-        <v>17.76113049063084</v>
+        <v>28.74487296265912</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>28.51229246160891</v>
+        <v>51.56689699074062</v>
       </c>
       <c r="N23">
-        <v>17.86750589626934</v>
+        <v>21.26016171173155</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.509990227385981</v>
+        <v>9.716005429849318</v>
       </c>
       <c r="D24">
-        <v>4.721679308819794</v>
+        <v>7.350983536915394</v>
       </c>
       <c r="E24">
-        <v>9.676165958145976</v>
+        <v>9.835788793291986</v>
       </c>
       <c r="F24">
-        <v>36.6101717327528</v>
+        <v>64.37025669607451</v>
       </c>
       <c r="G24">
-        <v>55.04102972702592</v>
+        <v>103.8524022170022</v>
       </c>
       <c r="H24">
-        <v>17.20782343166588</v>
+        <v>25.83568146490575</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>26.90297845741125</v>
+        <v>47.09990631320032</v>
       </c>
       <c r="N24">
-        <v>17.46463019054724</v>
+        <v>20.12496134368434</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.177387271956397</v>
+        <v>8.600044217033426</v>
       </c>
       <c r="D25">
-        <v>4.603730516096646</v>
+        <v>6.435361868900577</v>
       </c>
       <c r="E25">
-        <v>9.530925801342786</v>
+        <v>9.420186562346377</v>
       </c>
       <c r="F25">
-        <v>34.4302559039676</v>
+        <v>56.67716537697957</v>
       </c>
       <c r="G25">
-        <v>50.90621974918423</v>
+        <v>91.37476453038875</v>
       </c>
       <c r="H25">
-        <v>16.61872161205481</v>
+        <v>22.73742853327859</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>25.06486081643276</v>
+        <v>42.14873761916606</v>
       </c>
       <c r="N25">
-        <v>17.02668227744613</v>
+        <v>18.84639006518292</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.754570565207422</v>
+        <v>3.192804794680581</v>
       </c>
       <c r="D2">
-        <v>5.760021933443718</v>
+        <v>5.335297671644587</v>
       </c>
       <c r="E2">
-        <v>9.080101044471835</v>
+        <v>8.272038694190147</v>
       </c>
       <c r="F2">
-        <v>50.92046294784274</v>
+        <v>40.42891285258053</v>
       </c>
       <c r="G2">
-        <v>82.04606876175001</v>
+        <v>61.33108086628955</v>
       </c>
       <c r="H2">
-        <v>20.42395245979113</v>
+        <v>2.549192530920683</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.462145635257439</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>16.65140697369895</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>29.99296627398644</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.18066286438803</v>
       </c>
       <c r="M2">
-        <v>38.31737486657385</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.86272768354581</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>34.06933063083196</v>
+      </c>
+      <c r="P2">
+        <v>18.67788000281937</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.159327511984488</v>
+        <v>2.942218301287042</v>
       </c>
       <c r="D3">
-        <v>5.293285201327196</v>
+        <v>5.181851399895212</v>
       </c>
       <c r="E3">
-        <v>8.83360814705148</v>
+        <v>8.082430324559057</v>
       </c>
       <c r="F3">
-        <v>46.9080924883968</v>
+        <v>38.33104390766455</v>
       </c>
       <c r="G3">
-        <v>75.54729927438011</v>
+        <v>57.64803234196862</v>
       </c>
       <c r="H3">
-        <v>18.81425726142788</v>
+        <v>2.184944785357884</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.123403525428488</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>15.91444817829506</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>28.43447983003502</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.097902642867552</v>
       </c>
       <c r="M3">
-        <v>35.58057758189681</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17.17275831276573</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>31.94551507703128</v>
+      </c>
+      <c r="P3">
+        <v>17.94910580675809</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.781008382981307</v>
+        <v>2.784706154787125</v>
       </c>
       <c r="D4">
-        <v>5.000184677723809</v>
+        <v>5.084559613077679</v>
       </c>
       <c r="E4">
-        <v>8.675994100660962</v>
+        <v>7.961890590167759</v>
       </c>
       <c r="F4">
-        <v>44.37704571113309</v>
+        <v>36.99604103883036</v>
       </c>
       <c r="G4">
-        <v>71.4488389163066</v>
+        <v>55.28133518857226</v>
       </c>
       <c r="H4">
-        <v>17.80015628269326</v>
+        <v>1.955141796482378</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.909448062261717</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15.44884715797522</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>27.43849690635601</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.045345158478709</v>
       </c>
       <c r="M4">
-        <v>33.82491715939873</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.73890113326893</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>30.56420414251695</v>
+      </c>
+      <c r="P4">
+        <v>17.48868243238889</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.623379888880479</v>
+        <v>2.719130548958705</v>
       </c>
       <c r="D5">
-        <v>4.87884914734552</v>
+        <v>5.041689089704052</v>
       </c>
       <c r="E5">
-        <v>8.610429545551005</v>
+        <v>7.91025426322991</v>
       </c>
       <c r="F5">
-        <v>43.32718002356428</v>
+        <v>36.424271880097</v>
       </c>
       <c r="G5">
-        <v>69.74899567992894</v>
+        <v>54.2600055742274</v>
       </c>
       <c r="H5">
-        <v>17.37983711145565</v>
+        <v>1.859126486066457</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.820063585322986</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>15.24930558541601</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>27.00586297517184</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.023124040156477</v>
       </c>
       <c r="M5">
-        <v>33.089792048104</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.55976065374649</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>29.9750439600589</v>
+      </c>
+      <c r="P5">
+        <v>17.29937912937216</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.596990622637044</v>
+        <v>2.707780668049326</v>
       </c>
       <c r="D6">
-        <v>4.858580315910507</v>
+        <v>5.031505673407922</v>
       </c>
       <c r="E6">
-        <v>8.599468938253153</v>
+        <v>7.899823203665457</v>
       </c>
       <c r="F6">
-        <v>43.15169924687836</v>
+        <v>36.30860563512005</v>
       </c>
       <c r="G6">
-        <v>69.46488215490606</v>
+        <v>54.05112848422975</v>
       </c>
       <c r="H6">
-        <v>17.3096019839285</v>
+        <v>1.842147925207522</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.804485494819773</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>15.20779752226259</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>26.91235631797549</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.018981190488142</v>
       </c>
       <c r="M6">
-        <v>32.96651649178139</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.52988042474959</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>29.86761303060862</v>
+      </c>
+      <c r="P6">
+        <v>17.26940189663046</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.778896844283265</v>
+        <v>2.78254646084522</v>
       </c>
       <c r="D7">
-        <v>4.998556284611698</v>
+        <v>5.075748668103603</v>
       </c>
       <c r="E7">
-        <v>8.675114965328397</v>
+        <v>7.956308275032084</v>
       </c>
       <c r="F7">
-        <v>44.36296326701248</v>
+        <v>36.93450149896338</v>
       </c>
       <c r="G7">
-        <v>71.42603734633541</v>
+        <v>55.1666632121256</v>
       </c>
       <c r="H7">
-        <v>17.79451700127336</v>
+        <v>1.951303583594266</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.906223694804386</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>15.42409132225117</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>27.37600709718317</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.043890118701403</v>
       </c>
       <c r="M7">
-        <v>33.8150836046898</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.7364943339879</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>30.53380835864574</v>
+      </c>
+      <c r="P7">
+        <v>17.49055584952276</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.5518441733783</v>
+        <v>3.105257615111786</v>
       </c>
       <c r="D8">
-        <v>5.600278485598685</v>
+        <v>5.272278603018644</v>
       </c>
       <c r="E8">
-        <v>8.99655602233997</v>
+        <v>8.201113268714346</v>
       </c>
       <c r="F8">
-        <v>49.54999369034074</v>
+        <v>39.64817480320574</v>
       </c>
       <c r="G8">
-        <v>79.82608260879593</v>
+        <v>59.95830048490406</v>
       </c>
       <c r="H8">
-        <v>19.8738715846455</v>
+        <v>2.421506403776962</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.34345620226223</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>16.37225450112385</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>29.39300533345369</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.150965877024772</v>
       </c>
       <c r="M8">
-        <v>37.38885411701119</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>17.62707351392724</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>33.32540725377412</v>
+      </c>
+      <c r="P8">
+        <v>18.43507958541308</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.978471693744103</v>
+        <v>3.714238983073</v>
       </c>
       <c r="D9">
-        <v>6.742635002017713</v>
+        <v>5.646976466627258</v>
       </c>
       <c r="E9">
-        <v>9.566220603470109</v>
+        <v>8.657808599753013</v>
       </c>
       <c r="F9">
-        <v>59.27423957939341</v>
+        <v>44.6719934714439</v>
       </c>
       <c r="G9">
-        <v>95.58548222122309</v>
+        <v>68.67131081478483</v>
       </c>
       <c r="H9">
-        <v>23.78254122261206</v>
+        <v>3.301874428492705</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5.160694581440699</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>18.15802162612357</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>33.12172792067138</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.350002698830876</v>
       </c>
       <c r="M9">
-        <v>43.8415323139832</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>19.28397981659176</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>38.22174718812428</v>
+      </c>
+      <c r="P9">
+        <v>20.16757484629152</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.99508917759235</v>
+        <v>4.140934398191872</v>
       </c>
       <c r="D10">
-        <v>7.584622635928417</v>
+        <v>5.94198114115863</v>
       </c>
       <c r="E10">
-        <v>9.931709761654004</v>
+        <v>9.037750876181263</v>
       </c>
       <c r="F10">
-        <v>66.31019586700884</v>
+        <v>47.83824851814444</v>
       </c>
       <c r="G10">
-        <v>107.0011825958459</v>
+        <v>74.17380199508347</v>
       </c>
       <c r="H10">
-        <v>26.61808167198966</v>
+        <v>3.901861924203395</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.725633149861269</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>19.30879439477582</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>35.49202296211879</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.496386070722384</v>
       </c>
       <c r="M10">
-        <v>48.31845263802083</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>20.43748962498257</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>41.26550289410776</v>
+      </c>
+      <c r="P10">
+        <v>21.40074003277114</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.45800947929453</v>
+        <v>4.279097465915806</v>
       </c>
       <c r="D11">
-        <v>7.97656457694216</v>
+        <v>6.417597000584931</v>
       </c>
       <c r="E11">
-        <v>10.0823884387899</v>
+        <v>9.918323958900231</v>
       </c>
       <c r="F11">
-        <v>69.54182175031914</v>
+        <v>46.97490147405567</v>
       </c>
       <c r="G11">
-        <v>112.2488803603612</v>
+        <v>73.57370598024399</v>
       </c>
       <c r="H11">
-        <v>27.92241879091377</v>
+        <v>4.473811519695607</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5.88288754648077</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>19.11579826313699</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>35.23925846876774</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.723847416864335</v>
       </c>
       <c r="M11">
-        <v>50.32174080009083</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>20.94700916976611</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>41.07738083185006</v>
+      </c>
+      <c r="P11">
+        <v>22.2720913036924</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.63424122363474</v>
+        <v>4.333819212276503</v>
       </c>
       <c r="D12">
-        <v>8.127271540700832</v>
+        <v>6.792577068365575</v>
       </c>
       <c r="E12">
-        <v>10.13678744225566</v>
+        <v>10.78081705904445</v>
       </c>
       <c r="F12">
-        <v>70.77659637782368</v>
+        <v>45.63230916468111</v>
       </c>
       <c r="G12">
-        <v>114.2547891261062</v>
+        <v>72.03124396352273</v>
       </c>
       <c r="H12">
-        <v>28.42111810902321</v>
+        <v>5.364462674128292</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.90587451105127</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>18.73375806034968</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>34.59535688724421</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.01639367758055</v>
       </c>
       <c r="M12">
-        <v>51.07840873499776</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>21.13768202071615</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>40.30795439859872</v>
+      </c>
+      <c r="P12">
+        <v>22.75260946629683</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.59622785809414</v>
+        <v>4.325653116519678</v>
       </c>
       <c r="D13">
-        <v>8.09469239063467</v>
+        <v>7.102289841696842</v>
       </c>
       <c r="E13">
-        <v>10.12519764161786</v>
+        <v>11.64322278681432</v>
       </c>
       <c r="F13">
-        <v>70.51004431377017</v>
+        <v>43.73181085713387</v>
       </c>
       <c r="G13">
-        <v>113.8217323203565</v>
+        <v>69.49442761885584</v>
       </c>
       <c r="H13">
-        <v>28.31344820439246</v>
+        <v>6.395602217798634</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5.823778603322275</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>18.14379765089199</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>33.52051166777586</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.358697351106391</v>
       </c>
       <c r="M13">
-        <v>50.91547630164155</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>21.09671927456167</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>38.99643863540492</v>
+      </c>
+      <c r="P13">
+        <v>22.97627894901413</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.47248338693234</v>
+        <v>4.292757758016526</v>
       </c>
       <c r="D14">
-        <v>7.988910432988431</v>
+        <v>7.290003773362034</v>
       </c>
       <c r="E14">
-        <v>10.08691992051357</v>
+        <v>12.25411444378188</v>
       </c>
       <c r="F14">
-        <v>69.64314018749445</v>
+        <v>42.11306543051158</v>
       </c>
       <c r="G14">
-        <v>112.4134562491581</v>
+        <v>67.21079286825871</v>
       </c>
       <c r="H14">
-        <v>27.96333241274065</v>
+        <v>7.180599736410073</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5.718978965195021</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>17.62511876970823</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>32.54669794569337</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.627372504220855</v>
       </c>
       <c r="M14">
-        <v>50.38401113330034</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>20.96274184290926</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>37.80906639844942</v>
+      </c>
+      <c r="P14">
+        <v>23.01993404564178</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.39683885388125</v>
+        <v>4.264432260128915</v>
       </c>
       <c r="D15">
-        <v>7.924449722108534</v>
+        <v>7.315554587006362</v>
       </c>
       <c r="E15">
-        <v>10.06311331339773</v>
+        <v>12.37853628388176</v>
       </c>
       <c r="F15">
-        <v>69.11380780904733</v>
+        <v>41.57996717916757</v>
       </c>
       <c r="G15">
-        <v>111.5536727053565</v>
+        <v>66.40403234257059</v>
       </c>
       <c r="H15">
-        <v>27.74959484489652</v>
+        <v>7.355252122489052</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.669755703003335</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>17.44677303927683</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>32.19735142797572</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.686182994809999</v>
       </c>
       <c r="M15">
-        <v>50.05832315290424</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>20.88037899550442</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>37.39381935335702</v>
+      </c>
+      <c r="P15">
+        <v>22.97667344895184</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.964913190417564</v>
+        <v>4.082946423836432</v>
       </c>
       <c r="D16">
-        <v>7.559265944017928</v>
+        <v>7.132890416203162</v>
       </c>
       <c r="E16">
-        <v>9.921515162391978</v>
+        <v>12.06338158225876</v>
       </c>
       <c r="F16">
-        <v>66.10013620411344</v>
+        <v>40.48882741650306</v>
       </c>
       <c r="G16">
-        <v>106.6601783040318</v>
+        <v>64.39001577802537</v>
       </c>
       <c r="H16">
-        <v>26.53334068321516</v>
+        <v>7.02822866352852</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5.445847869208547</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>17.03817082113356</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>31.32721515125447</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.55289613125026</v>
       </c>
       <c r="M16">
-        <v>48.18708580540313</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>20.40387744828994</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>36.30304196991491</v>
+      </c>
+      <c r="P16">
+        <v>22.43235986649102</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.700590158143337</v>
+        <v>3.95799623090251</v>
       </c>
       <c r="D17">
-        <v>7.338134913287547</v>
+        <v>6.886325147922894</v>
       </c>
       <c r="E17">
-        <v>9.830386143215229</v>
+        <v>11.472251500925</v>
       </c>
       <c r="F17">
-        <v>64.26328742283897</v>
+        <v>40.54015480565081</v>
       </c>
       <c r="G17">
-        <v>103.6788061123806</v>
+        <v>64.09435646245504</v>
       </c>
       <c r="H17">
-        <v>25.79255246660757</v>
+        <v>6.301860431359907</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.329010387017527</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>17.00765327450845</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>31.1898724738125</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.296517527524895</v>
       </c>
       <c r="M17">
-        <v>47.03236569544404</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>20.10759458554646</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>36.11242193276335</v>
+      </c>
+      <c r="P17">
+        <v>21.98428466211423</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.54853619822469</v>
+        <v>3.886228421990559</v>
       </c>
       <c r="D18">
-        <v>7.211709653767763</v>
+        <v>6.573570136759714</v>
       </c>
       <c r="E18">
-        <v>9.776533378467816</v>
+        <v>10.63980014801794</v>
       </c>
       <c r="F18">
-        <v>63.20919467818167</v>
+        <v>41.62223129709103</v>
       </c>
       <c r="G18">
-        <v>101.9683212020714</v>
+        <v>65.33315552464985</v>
       </c>
       <c r="H18">
-        <v>25.36762505369235</v>
+        <v>5.220314904073305</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.295158419204427</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>17.31546121146402</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>31.71386145554262</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.953256680359774</v>
       </c>
       <c r="M18">
-        <v>46.36485372606057</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>19.93575146150554</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>36.70464935027125</v>
+      </c>
+      <c r="P18">
+        <v>21.57093130028969</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.497027492788563</v>
+        <v>3.868401211201927</v>
       </c>
       <c r="D19">
-        <v>7.169010041317921</v>
+        <v>6.227516655424655</v>
       </c>
       <c r="E19">
-        <v>9.758064205709202</v>
+        <v>9.769876469741233</v>
       </c>
       <c r="F19">
-        <v>62.85254574255448</v>
+        <v>43.34502909020904</v>
       </c>
       <c r="G19">
-        <v>101.389648783031</v>
+        <v>67.53165756859299</v>
       </c>
       <c r="H19">
-        <v>25.22388222554579</v>
+        <v>4.15901852696294</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5.332664061139055</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>17.83019429026608</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>32.63049758213324</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.642835110149462</v>
       </c>
       <c r="M19">
-        <v>46.13819845846894</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>19.87732582641353</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>37.83456674583911</v>
+      </c>
+      <c r="P19">
+        <v>21.22917941483508</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.728724720716841</v>
+        <v>4.025844562805894</v>
       </c>
       <c r="D20">
-        <v>7.36158947061864</v>
+        <v>5.843172915768866</v>
       </c>
       <c r="E20">
-        <v>9.840238539878419</v>
+        <v>8.926957127932919</v>
       </c>
       <c r="F20">
-        <v>64.45853261742782</v>
+        <v>46.87197451547524</v>
       </c>
       <c r="G20">
-        <v>103.9956639086413</v>
+        <v>72.49392335993376</v>
       </c>
       <c r="H20">
-        <v>25.87127450378846</v>
+        <v>3.736182679194181</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.572195281334355</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>18.94942085221732</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>34.7304281451939</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.454905226857485</v>
       </c>
       <c r="M20">
-        <v>47.15561638834433</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>20.13928298372301</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>40.42662177043946</v>
+      </c>
+      <c r="P20">
+        <v>21.09670003741292</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.50879634691978</v>
+        <v>4.363570096372889</v>
       </c>
       <c r="D21">
-        <v>8.019909260500551</v>
+        <v>6.008766466935165</v>
       </c>
       <c r="E21">
-        <v>10.09823900991257</v>
+        <v>9.116832230806518</v>
       </c>
       <c r="F21">
-        <v>69.89740734505652</v>
+        <v>49.65177428619899</v>
       </c>
       <c r="G21">
-        <v>112.8264868719201</v>
+        <v>77.13939222254905</v>
       </c>
       <c r="H21">
-        <v>28.06601390696569</v>
+        <v>4.225874426679812</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.017893148672875</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>19.94368267463335</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>36.74117529059134</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.555345403603877</v>
       </c>
       <c r="M21">
-        <v>50.54014005142978</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>21.002156436964</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>42.92585902609804</v>
+      </c>
+      <c r="P21">
+        <v>21.95440138330944</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.02471740766744</v>
+        <v>4.580017956046863</v>
       </c>
       <c r="D22">
-        <v>8.464258627615157</v>
+        <v>6.143826947078609</v>
       </c>
       <c r="E22">
-        <v>10.25108135985715</v>
+        <v>9.276785140965259</v>
       </c>
       <c r="F22">
-        <v>73.52132384473006</v>
+        <v>51.34477515752783</v>
       </c>
       <c r="G22">
-        <v>118.7153362244141</v>
+        <v>80.00519069458528</v>
       </c>
       <c r="H22">
-        <v>29.53029880258552</v>
+        <v>4.53463675976998</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.303328066835702</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>20.56173340384259</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>38.00056826022129</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.625253999002526</v>
       </c>
       <c r="M22">
-        <v>52.74300865054472</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>21.55283509628998</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>44.42495144417855</v>
+      </c>
+      <c r="P22">
+        <v>22.51292732704703</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.74842761444041</v>
+        <v>4.465495044562505</v>
       </c>
       <c r="D23">
-        <v>8.225373742789939</v>
+        <v>6.080885720343883</v>
       </c>
       <c r="E23">
-        <v>10.17111568264573</v>
+        <v>9.19698544055549</v>
       </c>
       <c r="F23">
-        <v>71.57797258501489</v>
+        <v>50.4953670512099</v>
       </c>
       <c r="G23">
-        <v>115.5568860891087</v>
+        <v>78.57447975881854</v>
       </c>
       <c r="H23">
-        <v>28.74487296265912</v>
+        <v>4.373034765094852</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.153508349882288</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>20.25434443234011</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>37.38434357143863</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.589301900376084</v>
       </c>
       <c r="M23">
-        <v>51.56689699074062</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>21.26016171173155</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>43.65080544014489</v>
+      </c>
+      <c r="P23">
+        <v>22.21197799456254</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.716005429849318</v>
+        <v>4.028225313518067</v>
       </c>
       <c r="D24">
-        <v>7.350983536915394</v>
+        <v>5.82302177279868</v>
       </c>
       <c r="E24">
-        <v>9.835788793291986</v>
+        <v>8.881278567492451</v>
       </c>
       <c r="F24">
-        <v>64.37025669607451</v>
+        <v>47.10988009471053</v>
       </c>
       <c r="G24">
-        <v>103.8524022170022</v>
+        <v>72.83193185012426</v>
       </c>
       <c r="H24">
-        <v>25.83568146490575</v>
+        <v>3.750495194869077</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.576663747491892</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>19.02922209325762</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>34.89502978216551</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.449743018934459</v>
       </c>
       <c r="M24">
-        <v>47.09990631320032</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>20.12496134368434</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>40.55431944599692</v>
+      </c>
+      <c r="P24">
+        <v>21.0455131907305</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.600044217033426</v>
+        <v>3.550019176497293</v>
       </c>
       <c r="D25">
-        <v>6.435361868900577</v>
+        <v>5.534096530401023</v>
       </c>
       <c r="E25">
-        <v>9.420186562346377</v>
+        <v>8.529035036511555</v>
       </c>
       <c r="F25">
-        <v>56.67716537697957</v>
+        <v>43.27064160174838</v>
       </c>
       <c r="G25">
-        <v>91.37476453038875</v>
+        <v>66.24971642258697</v>
       </c>
       <c r="H25">
-        <v>22.73742853327859</v>
+        <v>3.063751648675235</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.940217830467892</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>17.65185852122876</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>32.05872783682071</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.295387404681025</v>
       </c>
       <c r="M25">
-        <v>42.14873761916606</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>18.84639006518292</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>36.9284568722849</v>
+      </c>
+      <c r="P25">
+        <v>19.71943301543964</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.192804794680581</v>
+        <v>4.227356921649527</v>
       </c>
       <c r="D2">
-        <v>5.335297671644587</v>
+        <v>4.7461805515284</v>
       </c>
       <c r="E2">
-        <v>8.272038694190147</v>
+        <v>7.867041081591182</v>
       </c>
       <c r="F2">
-        <v>40.42891285258053</v>
+        <v>36.6261393996672</v>
       </c>
       <c r="G2">
-        <v>61.33108086628955</v>
+        <v>53.82877869681523</v>
       </c>
       <c r="H2">
-        <v>2.549192530920683</v>
+        <v>2.317595768782253</v>
       </c>
       <c r="I2">
-        <v>4.462145635257439</v>
+        <v>4.179150123843344</v>
       </c>
       <c r="J2">
-        <v>16.65140697369895</v>
+        <v>15.56656704870724</v>
       </c>
       <c r="K2">
-        <v>29.99296627398644</v>
+        <v>25.9765663911671</v>
       </c>
       <c r="L2">
-        <v>6.18066286438803</v>
+        <v>21.52946833177411</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>17.72473445679323</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.066674013540983</v>
       </c>
       <c r="O2">
-        <v>34.06933063083196</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>18.67788000281937</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>32.48906912829939</v>
+      </c>
+      <c r="R2">
+        <v>19.00873654709829</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.942218301287042</v>
+        <v>3.83765307297353</v>
       </c>
       <c r="D3">
-        <v>5.181851399895212</v>
+        <v>4.697538105489691</v>
       </c>
       <c r="E3">
-        <v>8.082430324559057</v>
+        <v>7.764208275526043</v>
       </c>
       <c r="F3">
-        <v>38.33104390766455</v>
+        <v>34.91086646891289</v>
       </c>
       <c r="G3">
-        <v>57.64803234196862</v>
+        <v>50.80761784146726</v>
       </c>
       <c r="H3">
-        <v>2.184944785357884</v>
+        <v>2.002024065221511</v>
       </c>
       <c r="I3">
-        <v>4.123403525428488</v>
+        <v>3.911420528030074</v>
       </c>
       <c r="J3">
-        <v>15.91444817829506</v>
+        <v>14.97170890433771</v>
       </c>
       <c r="K3">
-        <v>28.43447983003502</v>
+        <v>24.80873057912449</v>
       </c>
       <c r="L3">
-        <v>6.097902642867552</v>
+        <v>20.93999787208312</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>16.49538847940579</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.011703978607679</v>
       </c>
       <c r="O3">
-        <v>31.94551507703128</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>17.94910580675809</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>30.51126321813595</v>
+      </c>
+      <c r="R3">
+        <v>18.23960066683735</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.784706154787125</v>
+        <v>3.592455449806065</v>
       </c>
       <c r="D4">
-        <v>5.084559613077679</v>
+        <v>4.66670993480906</v>
       </c>
       <c r="E4">
-        <v>7.961890590167759</v>
+        <v>7.69842974922505</v>
       </c>
       <c r="F4">
-        <v>36.99604103883036</v>
+        <v>33.8192763318282</v>
       </c>
       <c r="G4">
-        <v>55.28133518857226</v>
+        <v>48.8677629298748</v>
       </c>
       <c r="H4">
-        <v>1.955141796482378</v>
+        <v>1.802346580463209</v>
       </c>
       <c r="I4">
-        <v>3.909448062261717</v>
+        <v>3.741940422261209</v>
       </c>
       <c r="J4">
-        <v>15.44884715797522</v>
+        <v>14.59337547507521</v>
       </c>
       <c r="K4">
-        <v>27.43849690635601</v>
+        <v>24.06173385213597</v>
       </c>
       <c r="L4">
-        <v>6.045345158478709</v>
+        <v>20.5560897984657</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.7167816871487</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.976521936121863</v>
       </c>
       <c r="O4">
-        <v>30.56420414251695</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>17.48868243238889</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>29.22370036289609</v>
+      </c>
+      <c r="R4">
+        <v>17.75314510974171</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.719130548958705</v>
+        <v>3.500527017735392</v>
       </c>
       <c r="D5">
-        <v>5.041689089704052</v>
+        <v>4.652495429981847</v>
       </c>
       <c r="E5">
-        <v>7.91025426322991</v>
+        <v>7.67004100484346</v>
       </c>
       <c r="F5">
-        <v>36.424271880097</v>
+        <v>33.35032222529189</v>
       </c>
       <c r="G5">
-        <v>54.2600055742274</v>
+        <v>48.02810017413394</v>
       </c>
       <c r="H5">
-        <v>1.859126486066457</v>
+        <v>1.718829268272102</v>
       </c>
       <c r="I5">
-        <v>3.820063585322986</v>
+        <v>3.671345590689057</v>
       </c>
       <c r="J5">
-        <v>15.24930558541601</v>
+        <v>14.43005143966121</v>
       </c>
       <c r="K5">
-        <v>27.00586297517184</v>
+        <v>23.7345646958951</v>
       </c>
       <c r="L5">
-        <v>6.023124040156477</v>
+        <v>20.38240975149924</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.38232228057271</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.96156149862074</v>
       </c>
       <c r="O5">
-        <v>29.9750439600589</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>17.29937912937216</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>28.67434176648663</v>
+      </c>
+      <c r="R5">
+        <v>17.55283610548568</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.707780668049326</v>
+        <v>3.496828184425877</v>
       </c>
       <c r="D6">
-        <v>5.031505673407922</v>
+        <v>4.64839993748611</v>
       </c>
       <c r="E6">
-        <v>7.899823203665457</v>
+        <v>7.664178682693268</v>
       </c>
       <c r="F6">
-        <v>36.30860563512005</v>
+        <v>33.25373417399044</v>
       </c>
       <c r="G6">
-        <v>54.05112848422975</v>
+        <v>47.85286261172886</v>
       </c>
       <c r="H6">
-        <v>1.842147925207522</v>
+        <v>1.704107667347793</v>
       </c>
       <c r="I6">
-        <v>3.804485494819773</v>
+        <v>3.659460603841907</v>
       </c>
       <c r="J6">
-        <v>15.20779752226259</v>
+        <v>14.39540442994441</v>
       </c>
       <c r="K6">
-        <v>26.91235631797549</v>
+        <v>23.66087373984305</v>
       </c>
       <c r="L6">
-        <v>6.018981190488142</v>
+        <v>20.33893191647012</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15.31197223711366</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.958746023788787</v>
       </c>
       <c r="O6">
-        <v>29.86761303060862</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>17.26940189663046</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>28.57426579625153</v>
+      </c>
+      <c r="R6">
+        <v>17.52089047010002</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.78254646084522</v>
+        <v>3.614113089260568</v>
       </c>
       <c r="D7">
-        <v>5.075748668103603</v>
+        <v>4.659268292949493</v>
       </c>
       <c r="E7">
-        <v>7.956308275032084</v>
+        <v>7.693572032697949</v>
       </c>
       <c r="F7">
-        <v>36.93450149896338</v>
+        <v>33.73427950513076</v>
       </c>
       <c r="G7">
-        <v>55.1666632121256</v>
+        <v>48.8462776241299</v>
       </c>
       <c r="H7">
-        <v>1.951303583594266</v>
+        <v>1.79809761812097</v>
       </c>
       <c r="I7">
-        <v>3.906223694804386</v>
+        <v>3.739385032160043</v>
       </c>
       <c r="J7">
-        <v>15.42409132225117</v>
+        <v>14.49819951695852</v>
       </c>
       <c r="K7">
-        <v>27.37600709718317</v>
+        <v>23.9848852681774</v>
       </c>
       <c r="L7">
-        <v>6.043890118701403</v>
+        <v>20.49928395543359</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.65658040403565</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.97511287846339</v>
       </c>
       <c r="O7">
-        <v>30.53380835864574</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>17.49055584952276</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>29.18307898497361</v>
+      </c>
+      <c r="R7">
+        <v>17.75699425673126</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.105257615111786</v>
+        <v>4.107223882929548</v>
       </c>
       <c r="D8">
-        <v>5.272278603018644</v>
+        <v>4.715173126497193</v>
       </c>
       <c r="E8">
-        <v>8.201113268714346</v>
+        <v>7.823620009633761</v>
       </c>
       <c r="F8">
-        <v>39.64817480320574</v>
+        <v>35.88817707966233</v>
       </c>
       <c r="G8">
-        <v>59.95830048490406</v>
+        <v>52.94550210595711</v>
       </c>
       <c r="H8">
-        <v>2.421506403776962</v>
+        <v>2.203946475685246</v>
       </c>
       <c r="I8">
-        <v>4.34345620226223</v>
+        <v>4.083359425908812</v>
       </c>
       <c r="J8">
-        <v>16.37225450112385</v>
+        <v>15.10729352362347</v>
       </c>
       <c r="K8">
-        <v>29.39300533345369</v>
+        <v>25.44888197370835</v>
       </c>
       <c r="L8">
-        <v>6.150965877024772</v>
+        <v>21.23309594878869</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>17.20467563442248</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.045796318418914</v>
       </c>
       <c r="O8">
-        <v>33.32540725377412</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>18.43507958541308</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>31.75824331222536</v>
+      </c>
+      <c r="R8">
+        <v>18.75971986857928</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.714238983073</v>
+        <v>5.010001482761157</v>
       </c>
       <c r="D9">
-        <v>5.646976466627258</v>
+        <v>4.834661929648558</v>
       </c>
       <c r="E9">
-        <v>8.657808599753013</v>
+        <v>8.06889653537417</v>
       </c>
       <c r="F9">
-        <v>44.6719934714439</v>
+        <v>39.98465755454883</v>
       </c>
       <c r="G9">
-        <v>68.67131081478483</v>
+        <v>60.14375627145993</v>
       </c>
       <c r="H9">
-        <v>3.301874428492705</v>
+        <v>2.962087368400161</v>
       </c>
       <c r="I9">
-        <v>5.160694581440699</v>
+        <v>4.72499384944844</v>
       </c>
       <c r="J9">
-        <v>18.15802162612357</v>
+        <v>16.49545706084578</v>
       </c>
       <c r="K9">
-        <v>33.12172792067138</v>
+        <v>28.2374326328795</v>
       </c>
       <c r="L9">
-        <v>6.350002698830876</v>
+        <v>22.62010838568423</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20.15635297976915</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.176372519397765</v>
       </c>
       <c r="O9">
-        <v>38.22174718812428</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>20.16757484629152</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>36.30517447328057</v>
+      </c>
+      <c r="R9">
+        <v>20.58727366012912</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.140934398191872</v>
+        <v>5.584672119592547</v>
       </c>
       <c r="D10">
-        <v>5.94198114115863</v>
+        <v>4.931849034357811</v>
       </c>
       <c r="E10">
-        <v>9.037750876181263</v>
+        <v>8.272599979661813</v>
       </c>
       <c r="F10">
-        <v>47.83824851814444</v>
+        <v>42.39886032671885</v>
       </c>
       <c r="G10">
-        <v>74.17380199508347</v>
+        <v>65.04582867558284</v>
       </c>
       <c r="H10">
-        <v>3.901861924203395</v>
+        <v>3.469597103766905</v>
       </c>
       <c r="I10">
-        <v>5.725633149861269</v>
+        <v>5.161516183328593</v>
       </c>
       <c r="J10">
-        <v>19.30879439477582</v>
+        <v>17.01181951333257</v>
       </c>
       <c r="K10">
-        <v>35.49202296211879</v>
+        <v>29.88947846981701</v>
       </c>
       <c r="L10">
-        <v>6.496386070722384</v>
+        <v>23.35962151846341</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>21.99078543031005</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.269122083427077</v>
       </c>
       <c r="O10">
-        <v>41.26550289410776</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>21.40074003277114</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>39.06550233483673</v>
+      </c>
+      <c r="R10">
+        <v>21.89329900309703</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.279097465915806</v>
+        <v>5.478913171931906</v>
       </c>
       <c r="D11">
-        <v>6.417597000584931</v>
+        <v>5.221872446355507</v>
       </c>
       <c r="E11">
-        <v>9.918323958900231</v>
+        <v>8.898895691589919</v>
       </c>
       <c r="F11">
-        <v>46.97490147405567</v>
+        <v>41.19681589699378</v>
       </c>
       <c r="G11">
-        <v>73.57370598024399</v>
+        <v>65.20096252262799</v>
       </c>
       <c r="H11">
-        <v>4.473811519695607</v>
+        <v>4.070390109986377</v>
       </c>
       <c r="I11">
-        <v>5.88288754648077</v>
+        <v>5.278541045268496</v>
       </c>
       <c r="J11">
-        <v>19.11579826313699</v>
+        <v>16.03433915583229</v>
       </c>
       <c r="K11">
-        <v>35.23925846876774</v>
+        <v>29.37880410505067</v>
       </c>
       <c r="L11">
-        <v>6.723847416864335</v>
+        <v>22.77620797625999</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>21.84131123145724</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.449238753448689</v>
       </c>
       <c r="O11">
-        <v>41.07738083185006</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>22.2720913036924</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>38.74973702943836</v>
+      </c>
+      <c r="R11">
+        <v>22.79933634177294</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.333819212276503</v>
+        <v>5.276083548517801</v>
       </c>
       <c r="D12">
-        <v>6.792577068365575</v>
+        <v>5.49636059103965</v>
       </c>
       <c r="E12">
-        <v>10.78081705904445</v>
+        <v>9.622508750298964</v>
       </c>
       <c r="F12">
-        <v>45.63230916468111</v>
+        <v>39.80455272271695</v>
       </c>
       <c r="G12">
-        <v>72.03124396352273</v>
+        <v>64.18702476930487</v>
       </c>
       <c r="H12">
-        <v>5.364462674128292</v>
+        <v>5.033685749260021</v>
       </c>
       <c r="I12">
-        <v>5.90587451105127</v>
+        <v>5.29440040514977</v>
       </c>
       <c r="J12">
-        <v>18.73375806034968</v>
+        <v>15.34135080959197</v>
       </c>
       <c r="K12">
-        <v>34.59535688724421</v>
+        <v>28.72204858781345</v>
       </c>
       <c r="L12">
-        <v>7.01639367758055</v>
+        <v>22.219519294312</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>21.4252209951886</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.718539728959969</v>
       </c>
       <c r="O12">
-        <v>40.30795439859872</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>22.75260946629683</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>37.96320524700703</v>
+      </c>
+      <c r="R12">
+        <v>23.28705227481142</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.325653116519678</v>
+        <v>5.020392950757505</v>
       </c>
       <c r="D13">
-        <v>7.102289841696842</v>
+        <v>5.781265011517952</v>
       </c>
       <c r="E13">
-        <v>11.64322278681432</v>
+        <v>10.43680586736919</v>
       </c>
       <c r="F13">
-        <v>43.73181085713387</v>
+        <v>38.14203807593533</v>
       </c>
       <c r="G13">
-        <v>69.49442761885584</v>
+        <v>61.89594991438967</v>
       </c>
       <c r="H13">
-        <v>6.395602217798634</v>
+        <v>6.140117951448751</v>
       </c>
       <c r="I13">
-        <v>5.823778603322275</v>
+        <v>5.234250859060192</v>
       </c>
       <c r="J13">
-        <v>18.14379765089199</v>
+        <v>14.93723106443251</v>
       </c>
       <c r="K13">
-        <v>33.52051166777586</v>
+        <v>27.87504646585537</v>
       </c>
       <c r="L13">
-        <v>7.358697351106391</v>
+        <v>21.62001359917192</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.74985052933281</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.057230104624434</v>
       </c>
       <c r="O13">
-        <v>38.99643863540492</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>22.97627894901413</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>36.74420750807964</v>
+      </c>
+      <c r="R13">
+        <v>23.49168994762766</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.292757758016526</v>
+        <v>4.81974967640217</v>
       </c>
       <c r="D14">
-        <v>7.290003773362034</v>
+        <v>5.989757441256902</v>
       </c>
       <c r="E14">
-        <v>12.25411444378188</v>
+        <v>11.05818937731262</v>
       </c>
       <c r="F14">
-        <v>42.11306543051158</v>
+        <v>36.82125492105444</v>
       </c>
       <c r="G14">
-        <v>67.21079286825871</v>
+        <v>59.66662364791478</v>
       </c>
       <c r="H14">
-        <v>7.180599736410073</v>
+        <v>6.972442643618676</v>
       </c>
       <c r="I14">
-        <v>5.718978965195021</v>
+        <v>5.158093205678451</v>
       </c>
       <c r="J14">
-        <v>17.62511876970823</v>
+        <v>14.76702758342825</v>
       </c>
       <c r="K14">
-        <v>32.54669794569337</v>
+        <v>27.1716759537889</v>
       </c>
       <c r="L14">
-        <v>7.627372504220855</v>
+        <v>21.16317783304335</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.14032285697953</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.332876411032791</v>
       </c>
       <c r="O14">
-        <v>37.80906639844942</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>23.01993404564178</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>35.67127352903594</v>
+      </c>
+      <c r="R14">
+        <v>23.51015125421243</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.264432260128915</v>
+        <v>4.760663660908138</v>
       </c>
       <c r="D15">
-        <v>7.315554587006362</v>
+        <v>6.03595562134076</v>
       </c>
       <c r="E15">
-        <v>12.37853628388176</v>
+        <v>11.20010811262728</v>
       </c>
       <c r="F15">
-        <v>41.57996717916757</v>
+        <v>36.41989883873184</v>
       </c>
       <c r="G15">
-        <v>66.40403234257059</v>
+        <v>58.82708973558165</v>
       </c>
       <c r="H15">
-        <v>7.355252122489052</v>
+        <v>7.160036162521161</v>
       </c>
       <c r="I15">
-        <v>5.669755703003335</v>
+        <v>5.122654175356871</v>
       </c>
       <c r="J15">
-        <v>17.44677303927683</v>
+        <v>14.76809436787024</v>
       </c>
       <c r="K15">
-        <v>32.19735142797572</v>
+        <v>26.93874676425597</v>
       </c>
       <c r="L15">
-        <v>7.686182994809999</v>
+        <v>21.02705919723387</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.91989204656361</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.396924752864602</v>
       </c>
       <c r="O15">
-        <v>37.39381935335702</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>22.97667344895184</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>35.30630193419768</v>
+      </c>
+      <c r="R15">
+        <v>23.45541304556567</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.082946423836432</v>
+        <v>4.596958072444792</v>
       </c>
       <c r="D16">
-        <v>7.132890416203162</v>
+        <v>5.978095392087774</v>
       </c>
       <c r="E16">
-        <v>12.06338158225876</v>
+        <v>10.99958982962939</v>
       </c>
       <c r="F16">
-        <v>40.48882741650306</v>
+        <v>35.82925399867089</v>
       </c>
       <c r="G16">
-        <v>64.39001577802537</v>
+        <v>56.45179766456639</v>
       </c>
       <c r="H16">
-        <v>7.02822866352852</v>
+        <v>6.857439442480675</v>
       </c>
       <c r="I16">
-        <v>5.445847869208547</v>
+        <v>4.957229052082353</v>
       </c>
       <c r="J16">
-        <v>17.03817082113356</v>
+        <v>15.14408622105362</v>
       </c>
       <c r="K16">
-        <v>31.32721515125447</v>
+        <v>26.49690038272183</v>
       </c>
       <c r="L16">
-        <v>7.55289613125026</v>
+        <v>20.8951275769241</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.34627400596725</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.292324462745457</v>
       </c>
       <c r="O16">
-        <v>36.30304196991491</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>22.43235986649102</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>34.40558847736045</v>
+      </c>
+      <c r="R16">
+        <v>22.8653694104307</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.95799623090251</v>
+        <v>4.57964713893553</v>
       </c>
       <c r="D17">
-        <v>6.886325147922894</v>
+        <v>5.806900310357865</v>
       </c>
       <c r="E17">
-        <v>11.472251500925</v>
+        <v>10.48154044482999</v>
       </c>
       <c r="F17">
-        <v>40.54015480565081</v>
+        <v>36.06628288922331</v>
       </c>
       <c r="G17">
-        <v>64.09435646245504</v>
+        <v>55.94852544558185</v>
       </c>
       <c r="H17">
-        <v>6.301860431359907</v>
+        <v>6.127762816029927</v>
       </c>
       <c r="I17">
-        <v>5.329010387017527</v>
+        <v>4.869041933603016</v>
       </c>
       <c r="J17">
-        <v>17.00765327450845</v>
+        <v>15.43630424459686</v>
       </c>
       <c r="K17">
-        <v>31.1898724738125</v>
+        <v>26.51494443902394</v>
       </c>
       <c r="L17">
-        <v>7.296517527524895</v>
+        <v>21.02526691787382</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.21697645426494</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.052822066276551</v>
       </c>
       <c r="O17">
-        <v>36.11242193276335</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>21.98428466211423</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>34.28490625413207</v>
+      </c>
+      <c r="R17">
+        <v>22.39884856650414</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.886228421990559</v>
+        <v>4.691500667676908</v>
       </c>
       <c r="D18">
-        <v>6.573570136759714</v>
+        <v>5.547172585651247</v>
       </c>
       <c r="E18">
-        <v>10.63980014801794</v>
+        <v>9.712829830408726</v>
       </c>
       <c r="F18">
-        <v>41.62223129709103</v>
+        <v>37.13035336400753</v>
       </c>
       <c r="G18">
-        <v>65.33315552464985</v>
+        <v>56.94306800358838</v>
       </c>
       <c r="H18">
-        <v>5.220314904073305</v>
+        <v>5.011599476182852</v>
       </c>
       <c r="I18">
-        <v>5.295158419204427</v>
+        <v>4.841084095102513</v>
       </c>
       <c r="J18">
-        <v>17.31546121146402</v>
+        <v>15.83558114795877</v>
       </c>
       <c r="K18">
-        <v>31.71386145554262</v>
+        <v>27.0084898772643</v>
       </c>
       <c r="L18">
-        <v>6.953256680359774</v>
+        <v>21.45336971250409</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.51691928907584</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.721271968809645</v>
       </c>
       <c r="O18">
-        <v>36.70464935027125</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>21.57093130028969</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>34.86952041888994</v>
+      </c>
+      <c r="R18">
+        <v>21.98434876167046</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.868401211201927</v>
+        <v>4.952695007070187</v>
       </c>
       <c r="D19">
-        <v>6.227516655424655</v>
+        <v>5.250288521842609</v>
       </c>
       <c r="E19">
-        <v>9.769876469741233</v>
+        <v>8.923521004760046</v>
       </c>
       <c r="F19">
-        <v>43.34502909020904</v>
+        <v>38.70473388152689</v>
       </c>
       <c r="G19">
-        <v>67.53165756859299</v>
+        <v>58.8416364990472</v>
       </c>
       <c r="H19">
-        <v>4.15901852696294</v>
+        <v>3.878109559949765</v>
       </c>
       <c r="I19">
-        <v>5.332664061139055</v>
+        <v>4.868986887569126</v>
       </c>
       <c r="J19">
-        <v>17.83019429026608</v>
+        <v>16.3106612633723</v>
       </c>
       <c r="K19">
-        <v>32.63049758213324</v>
+        <v>27.77431910146664</v>
       </c>
       <c r="L19">
-        <v>6.642835110149462</v>
+        <v>22.03710149015227</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>20.08251366259717</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.422181478481409</v>
       </c>
       <c r="O19">
-        <v>37.83456674583911</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>21.22917941483508</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>35.94188393395053</v>
+      </c>
+      <c r="R19">
+        <v>21.65278433523751</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.025844562805894</v>
+        <v>5.524434399273634</v>
       </c>
       <c r="D20">
-        <v>5.843172915768866</v>
+        <v>4.902293656618686</v>
       </c>
       <c r="E20">
-        <v>8.926957127932919</v>
+        <v>8.217015719827922</v>
       </c>
       <c r="F20">
-        <v>46.87197451547524</v>
+        <v>41.72878414887612</v>
       </c>
       <c r="G20">
-        <v>72.49392335993376</v>
+        <v>63.31234726927786</v>
       </c>
       <c r="H20">
-        <v>3.736182679194181</v>
+        <v>3.333297963406526</v>
       </c>
       <c r="I20">
-        <v>5.572195281334355</v>
+        <v>5.049925900058136</v>
       </c>
       <c r="J20">
-        <v>18.94942085221732</v>
+        <v>17.04689012734183</v>
       </c>
       <c r="K20">
-        <v>34.7304281451939</v>
+        <v>29.39237163343602</v>
       </c>
       <c r="L20">
-        <v>6.454905226857485</v>
+        <v>23.11768136637181</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>21.46234263802217</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.243691278388732</v>
       </c>
       <c r="O20">
-        <v>40.42662177043946</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>21.09670003741292</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>38.33996847171369</v>
+      </c>
+      <c r="R20">
+        <v>21.56192046211184</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.363570096372889</v>
+        <v>5.900078491118899</v>
       </c>
       <c r="D21">
-        <v>6.008766466935165</v>
+        <v>4.893462295485864</v>
       </c>
       <c r="E21">
-        <v>9.116832230806518</v>
+        <v>8.286777163999885</v>
       </c>
       <c r="F21">
-        <v>49.65177428619899</v>
+        <v>43.45413604901828</v>
       </c>
       <c r="G21">
-        <v>77.13939222254905</v>
+        <v>68.62846295727387</v>
       </c>
       <c r="H21">
-        <v>4.225874426679812</v>
+        <v>3.729885007363054</v>
       </c>
       <c r="I21">
-        <v>6.017893148672875</v>
+        <v>5.376543141660642</v>
       </c>
       <c r="J21">
-        <v>19.94368267463335</v>
+        <v>16.39755483793562</v>
       </c>
       <c r="K21">
-        <v>36.74117529059134</v>
+        <v>30.49874248992514</v>
       </c>
       <c r="L21">
-        <v>6.555345403603877</v>
+        <v>23.57338707569664</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>22.73575733768233</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.302496896043152</v>
       </c>
       <c r="O21">
-        <v>42.92585902609804</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>21.95440138330944</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>40.4329242494073</v>
+      </c>
+      <c r="R21">
+        <v>22.51561875765492</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.580017956046863</v>
+        <v>6.095662793082377</v>
       </c>
       <c r="D22">
-        <v>6.143826947078609</v>
+        <v>4.907705968664748</v>
       </c>
       <c r="E22">
-        <v>9.276785140965259</v>
+        <v>8.357467877529565</v>
       </c>
       <c r="F22">
-        <v>51.34477515752783</v>
+        <v>44.45372932204231</v>
       </c>
       <c r="G22">
-        <v>80.00519069458528</v>
+        <v>72.00342763388537</v>
       </c>
       <c r="H22">
-        <v>4.53463675976998</v>
+        <v>3.977593916112125</v>
       </c>
       <c r="I22">
-        <v>6.303328066835702</v>
+        <v>5.583286257574491</v>
       </c>
       <c r="J22">
-        <v>20.56173340384259</v>
+        <v>15.88915824922422</v>
       </c>
       <c r="K22">
-        <v>38.00056826022129</v>
+        <v>31.16827221961485</v>
       </c>
       <c r="L22">
-        <v>6.625253999002526</v>
+        <v>23.83552969165419</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>23.52030864657426</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.343845837414634</v>
       </c>
       <c r="O22">
-        <v>44.42495144417855</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>22.51292732704703</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>41.6663961307037</v>
+      </c>
+      <c r="R22">
+        <v>23.13683941358863</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.465495044562505</v>
+        <v>5.980317702304268</v>
       </c>
       <c r="D23">
-        <v>6.080885720343883</v>
+        <v>4.90961225298805</v>
       </c>
       <c r="E23">
-        <v>9.19698544055549</v>
+        <v>8.3249229849248</v>
       </c>
       <c r="F23">
-        <v>50.4953670512099</v>
+        <v>44.02976430047046</v>
       </c>
       <c r="G23">
-        <v>78.57447975881854</v>
+        <v>70.13132856746786</v>
       </c>
       <c r="H23">
-        <v>4.373034765094852</v>
+        <v>3.850069748969388</v>
       </c>
       <c r="I23">
-        <v>6.153508349882288</v>
+        <v>5.475453594546186</v>
       </c>
       <c r="J23">
-        <v>20.25434443234011</v>
+        <v>16.33576703612696</v>
       </c>
       <c r="K23">
-        <v>37.38434357143863</v>
+        <v>30.90495444549475</v>
       </c>
       <c r="L23">
-        <v>6.589301900376084</v>
+        <v>23.76403619091899</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>23.17454109564454</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.323172946567846</v>
       </c>
       <c r="O23">
-        <v>43.65080544014489</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>22.21197799456254</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>41.05594106452973</v>
+      </c>
+      <c r="R23">
+        <v>22.79757211534283</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.028225313518067</v>
+        <v>5.509815638594846</v>
       </c>
       <c r="D24">
-        <v>5.82302177279868</v>
+        <v>4.886630617285012</v>
       </c>
       <c r="E24">
-        <v>8.881278567492451</v>
+        <v>8.186808674517124</v>
       </c>
       <c r="F24">
-        <v>47.10988009471053</v>
+        <v>41.9510095377749</v>
       </c>
       <c r="G24">
-        <v>72.83193185012426</v>
+        <v>63.60331650720718</v>
       </c>
       <c r="H24">
-        <v>3.750495194869077</v>
+        <v>3.345655539314159</v>
       </c>
       <c r="I24">
-        <v>5.576663747491892</v>
+        <v>5.050956563457697</v>
       </c>
       <c r="J24">
-        <v>19.02922209325762</v>
+        <v>17.1294566807844</v>
       </c>
       <c r="K24">
-        <v>34.89502978216551</v>
+        <v>29.53932543062294</v>
       </c>
       <c r="L24">
-        <v>6.449743018934459</v>
+        <v>23.2315625788928</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>21.56914170780045</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.240639309003361</v>
       </c>
       <c r="O24">
-        <v>40.55431944599692</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>21.0455131907305</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>38.46153077721365</v>
+      </c>
+      <c r="R24">
+        <v>21.51168614756485</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.550019176497293</v>
+        <v>4.824891233054403</v>
       </c>
       <c r="D25">
-        <v>5.534096530401023</v>
+        <v>4.798376805607316</v>
       </c>
       <c r="E25">
-        <v>8.529035036511555</v>
+        <v>8.001303900389143</v>
       </c>
       <c r="F25">
-        <v>43.27064160174838</v>
+        <v>38.87215592951826</v>
       </c>
       <c r="G25">
-        <v>66.24971642258697</v>
+        <v>58.02855021532228</v>
       </c>
       <c r="H25">
-        <v>3.063751648675235</v>
+        <v>2.759368023672414</v>
       </c>
       <c r="I25">
-        <v>4.940217830467892</v>
+        <v>4.555594037493266</v>
       </c>
       <c r="J25">
-        <v>17.65185852122876</v>
+        <v>16.19397481891498</v>
       </c>
       <c r="K25">
-        <v>32.05872783682071</v>
+        <v>27.45672056118972</v>
       </c>
       <c r="L25">
-        <v>6.295387404681025</v>
+        <v>22.22373835230114</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.34146147871649</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.141145399863541</v>
       </c>
       <c r="O25">
-        <v>36.9284568722849</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>19.71943301543964</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>35.12122809435254</v>
+      </c>
+      <c r="R25">
+        <v>20.11082157093385</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
